--- a/tests/tests8/ЛМ 0.0.xlsx
+++ b/tests/tests8/ЛМ 0.0.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.005469399999981306</v>
+        <v>0.005197299999998961</v>
       </c>
       <c r="U2">
         <v>19</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.002541400000040994</v>
+        <v>0.002576799999999935</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.001764799999989464</v>
+        <v>0.001882600000001844</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.004026500000009037</v>
+        <v>0.005076400000000092</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004988099999991391</v>
+        <v>0.004761800000004257</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.001954599999976381</v>
+        <v>0.002025400000000843</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005230600000004415</v>
+        <v>0.005096500000000503</v>
       </c>
       <c r="U8">
         <v>27</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.001739600000007613</v>
+        <v>0.002146600000003218</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.00438090000000102</v>
+        <v>0.004237499999995009</v>
       </c>
       <c r="U10">
         <v>23</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.001612700000009681</v>
+        <v>0.003326400000005947</v>
       </c>
       <c r="U11">
         <v>7</v>
@@ -1253,7 +1253,7 @@
         <v>22</v>
       </c>
       <c r="T12">
-        <v>0.00285550000000967</v>
+        <v>0.002905500000004224</v>
       </c>
       <c r="U12">
         <v>14</v>
@@ -1321,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="T13">
-        <v>0.001704700000004777</v>
+        <v>0.002152500000001112</v>
       </c>
       <c r="U13">
         <v>8</v>
@@ -1389,7 +1389,7 @@
         <v>22</v>
       </c>
       <c r="T14">
-        <v>0.001954099999977643</v>
+        <v>0.001849799999995128</v>
       </c>
       <c r="U14">
         <v>8</v>
@@ -1457,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="T15">
-        <v>0.003960600000027625</v>
+        <v>0.005211000000002741</v>
       </c>
       <c r="U15">
         <v>21</v>
@@ -1525,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.003770299999985127</v>
+        <v>0.003710699999999179</v>
       </c>
       <c r="U16">
         <v>19</v>
@@ -1593,7 +1593,7 @@
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.003927300000043488</v>
+        <v>0.004035900000005199</v>
       </c>
       <c r="U17">
         <v>21</v>
@@ -1661,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="T18">
-        <v>0.002083700000014233</v>
+        <v>0.002154300000000831</v>
       </c>
       <c r="U18">
         <v>9</v>
@@ -1729,7 +1729,7 @@
         <v>22</v>
       </c>
       <c r="T19">
-        <v>0.002004499999998188</v>
+        <v>0.002124599999994814</v>
       </c>
       <c r="U19">
         <v>9</v>
@@ -1797,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="T20">
-        <v>0.004223099999990154</v>
+        <v>0.004156100000002994</v>
       </c>
       <c r="U20">
         <v>22</v>
@@ -1865,7 +1865,7 @@
         <v>22</v>
       </c>
       <c r="T21">
-        <v>0.001818600000035531</v>
+        <v>0.001790999999997211</v>
       </c>
       <c r="U21">
         <v>8</v>
@@ -1933,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.004328499999985524</v>
+        <v>0.004740399999995759</v>
       </c>
       <c r="U22">
         <v>22</v>
@@ -2001,7 +2001,7 @@
         <v>22</v>
       </c>
       <c r="T23">
-        <v>0.001644499999997606</v>
+        <v>0.001653400000002136</v>
       </c>
       <c r="U23">
         <v>7</v>
@@ -2069,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>0.001826999999991585</v>
+        <v>0.001860100000001808</v>
       </c>
       <c r="U24">
         <v>8</v>
@@ -2137,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.003791299999988951</v>
+        <v>0.003947300000000098</v>
       </c>
       <c r="U25">
         <v>19</v>
@@ -2205,7 +2205,7 @@
         <v>22</v>
       </c>
       <c r="T26">
-        <v>0.004736400000012964</v>
+        <v>0.006132200000003252</v>
       </c>
       <c r="U26">
         <v>26</v>
@@ -2273,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>0.005493600000022525</v>
+        <v>0.004867300000000796</v>
       </c>
       <c r="U27">
         <v>25</v>
@@ -2341,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="T28">
-        <v>0.002045800000018971</v>
+        <v>0.002085800000003246</v>
       </c>
       <c r="U28">
         <v>9</v>
@@ -2409,7 +2409,7 @@
         <v>22</v>
       </c>
       <c r="T29">
-        <v>0.003682500000024902</v>
+        <v>0.002597399999999084</v>
       </c>
       <c r="U29">
         <v>13</v>
@@ -2477,7 +2477,7 @@
         <v>22</v>
       </c>
       <c r="T30">
-        <v>0.004233699999986129</v>
+        <v>0.004571000000005654</v>
       </c>
       <c r="U30">
         <v>23</v>
@@ -2545,7 +2545,7 @@
         <v>22</v>
       </c>
       <c r="T31">
-        <v>0.004537499999969441</v>
+        <v>0.005240499999999315</v>
       </c>
       <c r="U31">
         <v>23</v>
@@ -2613,7 +2613,7 @@
         <v>22</v>
       </c>
       <c r="T32">
-        <v>0.003914699999995719</v>
+        <v>0.004037899999993044</v>
       </c>
       <c r="U32">
         <v>21</v>
@@ -2681,7 +2681,7 @@
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.002016999999966629</v>
+        <v>0.002797100000002217</v>
       </c>
       <c r="U33">
         <v>9</v>
@@ -2749,7 +2749,7 @@
         <v>22</v>
       </c>
       <c r="T34">
-        <v>0.005129199999998946</v>
+        <v>0.005122199999995303</v>
       </c>
       <c r="U34">
         <v>27</v>
@@ -2817,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="T35">
-        <v>0.001982400000031248</v>
+        <v>0.00201669999999865</v>
       </c>
       <c r="U35">
         <v>9</v>
@@ -2885,7 +2885,7 @@
         <v>22</v>
       </c>
       <c r="T36">
-        <v>0.001665400000035788</v>
+        <v>0.00186779999999942</v>
       </c>
       <c r="U36">
         <v>7</v>
@@ -2953,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="T37">
-        <v>0.002532200000018747</v>
+        <v>0.002498399999993239</v>
       </c>
       <c r="U37">
         <v>12</v>
@@ -3021,7 +3021,7 @@
         <v>22</v>
       </c>
       <c r="T38">
-        <v>0.005174300000021503</v>
+        <v>0.005028400000000488</v>
       </c>
       <c r="U38">
         <v>26</v>
@@ -3089,7 +3089,7 @@
         <v>22</v>
       </c>
       <c r="T39">
-        <v>0.004549999999994725</v>
+        <v>0.005030200000000207</v>
       </c>
       <c r="U39">
         <v>25</v>
@@ -3157,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="T40">
-        <v>0.002906600000017079</v>
+        <v>0.002787800000000118</v>
       </c>
       <c r="U40">
         <v>12</v>
@@ -3225,7 +3225,7 @@
         <v>22</v>
       </c>
       <c r="T41">
-        <v>0.003585600000008071</v>
+        <v>0.003763900000002707</v>
       </c>
       <c r="U41">
         <v>19</v>
@@ -3293,7 +3293,7 @@
         <v>22</v>
       </c>
       <c r="T42">
-        <v>0.001839200000006258</v>
+        <v>0.001783800000005442</v>
       </c>
       <c r="U42">
         <v>8</v>
@@ -3361,7 +3361,7 @@
         <v>22</v>
       </c>
       <c r="T43">
-        <v>0.001904299999978321</v>
+        <v>0.001782000000005723</v>
       </c>
       <c r="U43">
         <v>8</v>
@@ -3429,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="T44">
-        <v>0.003610200000025543</v>
+        <v>0.002524700000002156</v>
       </c>
       <c r="U44">
         <v>12</v>
@@ -3497,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="T45">
-        <v>0.001828900000020894</v>
+        <v>0.001764399999999</v>
       </c>
       <c r="U45">
         <v>8</v>
@@ -3565,7 +3565,7 @@
         <v>22</v>
       </c>
       <c r="T46">
-        <v>0.004047200000002249</v>
+        <v>0.003440799999999911</v>
       </c>
       <c r="U46">
         <v>17</v>
@@ -3633,7 +3633,7 @@
         <v>22</v>
       </c>
       <c r="T47">
-        <v>0.004795000000001437</v>
+        <v>0.005516999999997552</v>
       </c>
       <c r="U47">
         <v>27</v>
@@ -3701,7 +3701,7 @@
         <v>22</v>
       </c>
       <c r="T48">
-        <v>0.005187100000000555</v>
+        <v>0.004892099999999289</v>
       </c>
       <c r="U48">
         <v>26</v>
@@ -3769,7 +3769,7 @@
         <v>22</v>
       </c>
       <c r="T49">
-        <v>0.00204550000000836</v>
+        <v>0.001791999999994687</v>
       </c>
       <c r="U49">
         <v>8</v>
@@ -3837,7 +3837,7 @@
         <v>22</v>
       </c>
       <c r="T50">
-        <v>0.001615300000025854</v>
+        <v>0.001525600000000793</v>
       </c>
       <c r="U50">
         <v>7</v>
@@ -3905,7 +3905,7 @@
         <v>22</v>
       </c>
       <c r="T51">
-        <v>0.001760799999999563</v>
+        <v>0.002295300000000111</v>
       </c>
       <c r="U51">
         <v>8</v>
@@ -3973,7 +3973,7 @@
         <v>22</v>
       </c>
       <c r="T52">
-        <v>0.00258680000001732</v>
+        <v>0.002617499999999495</v>
       </c>
       <c r="U52">
         <v>12</v>
@@ -4041,7 +4041,7 @@
         <v>22</v>
       </c>
       <c r="T53">
-        <v>0.00296310000004496</v>
+        <v>0.003369400000003964</v>
       </c>
       <c r="U53">
         <v>14</v>
@@ -4109,7 +4109,7 @@
         <v>22</v>
       </c>
       <c r="T54">
-        <v>0.002864000000045053</v>
+        <v>0.002785000000002924</v>
       </c>
       <c r="U54">
         <v>14</v>
@@ -4177,7 +4177,7 @@
         <v>22</v>
       </c>
       <c r="T55">
-        <v>0.005673300000012205</v>
+        <v>0.005391299999999433</v>
       </c>
       <c r="U55">
         <v>26</v>
@@ -4245,7 +4245,7 @@
         <v>22</v>
       </c>
       <c r="T56">
-        <v>0.001976899999988291</v>
+        <v>0.001998000000000388</v>
       </c>
       <c r="U56">
         <v>9</v>
@@ -4313,7 +4313,7 @@
         <v>22</v>
       </c>
       <c r="T57">
-        <v>0.001755000000002838</v>
+        <v>0.001845500000001721</v>
       </c>
       <c r="U57">
         <v>8</v>
@@ -4381,7 +4381,7 @@
         <v>22</v>
       </c>
       <c r="T58">
-        <v>0.004842199999984587</v>
+        <v>0.004800799999998162</v>
       </c>
       <c r="U58">
         <v>26</v>
@@ -4449,7 +4449,7 @@
         <v>22</v>
       </c>
       <c r="T59">
-        <v>0.001787000000035732</v>
+        <v>0.00184899999999999</v>
       </c>
       <c r="U59">
         <v>8</v>
@@ -4517,7 +4517,7 @@
         <v>22</v>
       </c>
       <c r="T60">
-        <v>0.002039699999954792</v>
+        <v>0.00209679999999679</v>
       </c>
       <c r="U60">
         <v>9</v>
@@ -4585,7 +4585,7 @@
         <v>22</v>
       </c>
       <c r="T61">
-        <v>0.003821800000025632</v>
+        <v>0.003888099999997507</v>
       </c>
       <c r="U61">
         <v>20</v>
@@ -4653,7 +4653,7 @@
         <v>22</v>
       </c>
       <c r="T62">
-        <v>0.001818300000024919</v>
+        <v>0.001904000000003236</v>
       </c>
       <c r="U62">
         <v>8</v>
@@ -4721,7 +4721,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>0.004476999999951659</v>
+        <v>0.004058300000004067</v>
       </c>
       <c r="U63">
         <v>21</v>
@@ -4789,7 +4789,7 @@
         <v>22</v>
       </c>
       <c r="T64">
-        <v>0.0015725999999745</v>
+        <v>0.001722600000000796</v>
       </c>
       <c r="U64">
         <v>7</v>
@@ -4857,7 +4857,7 @@
         <v>22</v>
       </c>
       <c r="T65">
-        <v>0.003626499999995758</v>
+        <v>0.003742599999995377</v>
       </c>
       <c r="U65">
         <v>18</v>
@@ -4925,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="T66">
-        <v>0.001968000000033499</v>
+        <v>0.002048000000002048</v>
       </c>
       <c r="U66">
         <v>9</v>
@@ -4993,7 +4993,7 @@
         <v>22</v>
       </c>
       <c r="T67">
-        <v>0.001763499999981377</v>
+        <v>0.001881400000002031</v>
       </c>
       <c r="U67">
         <v>8</v>
@@ -5061,7 +5061,7 @@
         <v>22</v>
       </c>
       <c r="T68">
-        <v>0.001880499999970198</v>
+        <v>0.002079199999997172</v>
       </c>
       <c r="U68">
         <v>8</v>
@@ -5129,7 +5129,7 @@
         <v>22</v>
       </c>
       <c r="T69">
-        <v>0.003640899999993508</v>
+        <v>0.003745799999997246</v>
       </c>
       <c r="U69">
         <v>19</v>
@@ -5197,7 +5197,7 @@
         <v>22</v>
       </c>
       <c r="T70">
-        <v>0.001943799999992279</v>
+        <v>0.001869599999999139</v>
       </c>
       <c r="U70">
         <v>8</v>
@@ -5265,7 +5265,7 @@
         <v>22</v>
       </c>
       <c r="T71">
-        <v>0.002019599999982802</v>
+        <v>0.002149400000000412</v>
       </c>
       <c r="U71">
         <v>9</v>
@@ -5333,7 +5333,7 @@
         <v>22</v>
       </c>
       <c r="T72">
-        <v>0.004840800000010859</v>
+        <v>0.005285299999997051</v>
       </c>
       <c r="U72">
         <v>26</v>
@@ -5401,7 +5401,7 @@
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.00178640000001451</v>
+        <v>0.001891200000002868</v>
       </c>
       <c r="U73">
         <v>8</v>
@@ -5469,7 +5469,7 @@
         <v>22</v>
       </c>
       <c r="T74">
-        <v>0.001849299999946652</v>
+        <v>0.001780699999997637</v>
       </c>
       <c r="U74">
         <v>8</v>
@@ -5537,7 +5537,7 @@
         <v>22</v>
       </c>
       <c r="T75">
-        <v>0.004136899999991783</v>
+        <v>0.004119100000004039</v>
       </c>
       <c r="U75">
         <v>22</v>
@@ -5605,7 +5605,7 @@
         <v>22</v>
       </c>
       <c r="T76">
-        <v>0.002071999999998297</v>
+        <v>0.001974699999998109</v>
       </c>
       <c r="U76">
         <v>9</v>
@@ -5673,7 +5673,7 @@
         <v>22</v>
       </c>
       <c r="T77">
-        <v>0.002305599999999686</v>
+        <v>0.002248899999997889</v>
       </c>
       <c r="U77">
         <v>11</v>
@@ -5741,7 +5741,7 @@
         <v>22</v>
       </c>
       <c r="T78">
-        <v>0.002125799999987521</v>
+        <v>0.00196950000000129</v>
       </c>
       <c r="U78">
         <v>9</v>
@@ -5809,7 +5809,7 @@
         <v>22</v>
       </c>
       <c r="T79">
-        <v>0.004444599999999355</v>
+        <v>0.004508999999998764</v>
       </c>
       <c r="U79">
         <v>24</v>
@@ -5877,7 +5877,7 @@
         <v>22</v>
       </c>
       <c r="T80">
-        <v>0.001660399999991569</v>
+        <v>0.001555299999999704</v>
       </c>
       <c r="U80">
         <v>7</v>
@@ -5945,7 +5945,7 @@
         <v>22</v>
       </c>
       <c r="T81">
-        <v>0.002977600000008351</v>
+        <v>0.002988500000000727</v>
       </c>
       <c r="U81">
         <v>15</v>
@@ -6013,7 +6013,7 @@
         <v>22</v>
       </c>
       <c r="T82">
-        <v>0.00346550000000434</v>
+        <v>0.003636600000000101</v>
       </c>
       <c r="U82">
         <v>18</v>
@@ -6081,7 +6081,7 @@
         <v>22</v>
       </c>
       <c r="T83">
-        <v>0.001997100000039609</v>
+        <v>0.00201089999999482</v>
       </c>
       <c r="U83">
         <v>9</v>
@@ -6149,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="T84">
-        <v>0.001965699999971093</v>
+        <v>0.001995300000004363</v>
       </c>
       <c r="U84">
         <v>9</v>
@@ -6217,7 +6217,7 @@
         <v>22</v>
       </c>
       <c r="T85">
-        <v>0.001944299999991017</v>
+        <v>0.002173299999995493</v>
       </c>
       <c r="U85">
         <v>9</v>
@@ -6285,7 +6285,7 @@
         <v>22</v>
       </c>
       <c r="T86">
-        <v>0.001630400000010468</v>
+        <v>0.001582200000001421</v>
       </c>
       <c r="U86">
         <v>7</v>
@@ -6353,7 +6353,7 @@
         <v>22</v>
       </c>
       <c r="T87">
-        <v>0.004034300000000712</v>
+        <v>0.004317700000001423</v>
       </c>
       <c r="U87">
         <v>22</v>
@@ -6421,7 +6421,7 @@
         <v>22</v>
       </c>
       <c r="T88">
-        <v>0.001867699999991146</v>
+        <v>0.001799699999999405</v>
       </c>
       <c r="U88">
         <v>8</v>
@@ -6489,7 +6489,7 @@
         <v>22</v>
       </c>
       <c r="T89">
-        <v>0.004271500000015749</v>
+        <v>0.004481599999998309</v>
       </c>
       <c r="U89">
         <v>23</v>
@@ -6557,7 +6557,7 @@
         <v>22</v>
       </c>
       <c r="T90">
-        <v>0.004196800000045187</v>
+        <v>0.004303799999995306</v>
       </c>
       <c r="U90">
         <v>22</v>
@@ -6625,7 +6625,7 @@
         <v>22</v>
       </c>
       <c r="T91">
-        <v>0.002535700000009911</v>
+        <v>0.003002100000003338</v>
       </c>
       <c r="U91">
         <v>12</v>
@@ -6693,7 +6693,7 @@
         <v>22</v>
       </c>
       <c r="T92">
-        <v>0.001765499999976328</v>
+        <v>0.001835999999997284</v>
       </c>
       <c r="U92">
         <v>8</v>
@@ -6761,7 +6761,7 @@
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.001887399999986883</v>
+        <v>0.001882399999999507</v>
       </c>
       <c r="U93">
         <v>8</v>
@@ -6829,7 +6829,7 @@
         <v>22</v>
       </c>
       <c r="T94">
-        <v>0.004451799999969808</v>
+        <v>0.004512800000000539</v>
       </c>
       <c r="U94">
         <v>24</v>
@@ -6897,7 +6897,7 @@
         <v>22</v>
       </c>
       <c r="T95">
-        <v>0.004933099999959722</v>
+        <v>0.004887300000000039</v>
       </c>
       <c r="U95">
         <v>22</v>
@@ -6965,7 +6965,7 @@
         <v>22</v>
       </c>
       <c r="T96">
-        <v>0.004355200000020432</v>
+        <v>0.004406899999999325</v>
       </c>
       <c r="U96">
         <v>23</v>
@@ -7033,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="T97">
-        <v>0.002071200000045792</v>
+        <v>0.001841200000001209</v>
       </c>
       <c r="U97">
         <v>8</v>
@@ -7101,7 +7101,7 @@
         <v>22</v>
       </c>
       <c r="T98">
-        <v>0.001993700000014087</v>
+        <v>0.00200710000000015</v>
       </c>
       <c r="U98">
         <v>9</v>
@@ -7169,7 +7169,7 @@
         <v>22</v>
       </c>
       <c r="T99">
-        <v>0.005506500000024062</v>
+        <v>0.00468180000000018</v>
       </c>
       <c r="U99">
         <v>24</v>
@@ -7237,7 +7237,7 @@
         <v>22</v>
       </c>
       <c r="T100">
-        <v>0.00472980000000689</v>
+        <v>0.005369999999999209</v>
       </c>
       <c r="U100">
         <v>26</v>
@@ -7305,7 +7305,7 @@
         <v>22</v>
       </c>
       <c r="T101">
-        <v>0.004245700000012675</v>
+        <v>0.004170899999998312</v>
       </c>
       <c r="U101">
         <v>22</v>

--- a/tests/tests8/ЛМ 0.0.xlsx
+++ b/tests/tests8/ЛМ 0.0.xlsx
@@ -573,7 +573,7 @@
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.004420800000048075</v>
+        <v>0.004022400000000204</v>
       </c>
       <c r="U2">
         <v>19</v>
@@ -641,7 +641,7 @@
         <v>22</v>
       </c>
       <c r="T3">
-        <v>0.002606999999898107</v>
+        <v>0.003006999999996651</v>
       </c>
       <c r="U3">
         <v>12</v>
@@ -709,7 +709,7 @@
         <v>22</v>
       </c>
       <c r="T4">
-        <v>0.001856999999972686</v>
+        <v>0.001821799999998319</v>
       </c>
       <c r="U4">
         <v>8</v>
@@ -777,7 +777,7 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>0.00469810000004145</v>
+        <v>0.005400900000001485</v>
       </c>
       <c r="U5">
         <v>19</v>
@@ -845,7 +845,7 @@
         <v>22</v>
       </c>
       <c r="T6">
-        <v>0.004954500000053486</v>
+        <v>0.004936600000000624</v>
       </c>
       <c r="U6">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="T7">
-        <v>0.001940699999977369</v>
+        <v>0.001906899999998046</v>
       </c>
       <c r="U7">
         <v>9</v>
@@ -981,7 +981,7 @@
         <v>22</v>
       </c>
       <c r="T8">
-        <v>0.005027700000027835</v>
+        <v>0.004852799999998325</v>
       </c>
       <c r="U8">
         <v>27</v>
@@ -1049,7 +1049,7 @@
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.00239160000000993</v>
+        <v>0.001832600000000184</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1117,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="T10">
-        <v>0.004240299999992203</v>
+        <v>0.004102000000003159</v>
       </c>
       <c r="U10">
         <v>23</v>
@@ -1185,7 +1185,7 @@
         <v>22</v>
       </c>
       <c r="T11">
-        <v>0.002678899999978057</v>
+        <v>0.001526899999998221</v>
       </c>
       <c r="U11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.0.xlsx
+++ b/tests/tests8/ЛМ 0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>П0_ист</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>V0_апр</t>
+  </si>
+  <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -440,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +519,14 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.9999983917159</v>
+        <v>-2.806986808480048E-07</v>
       </c>
       <c r="F2">
-        <v>10.00000630641835</v>
+        <v>10.00000630641778</v>
       </c>
       <c r="G2">
-        <v>98.78643414126178</v>
+        <v>11.44635954958485</v>
       </c>
       <c r="H2">
-        <v>11.5822825457458</v>
+        <v>-1.769215088986073</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -552,10 +564,10 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.80711097780685</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -564,25 +576,31 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.061687684420378E-13</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.729691368554469E-06</v>
-      </c>
-      <c r="S2" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>4.061687680001082E-13</v>
       </c>
       <c r="T2">
-        <v>0.004022400000000204</v>
-      </c>
-      <c r="U2">
+        <v>3.970926019748841E-06</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2">
+        <v>0.005324599999767088</v>
+      </c>
+      <c r="W2">
         <v>19</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>0</v>
       </c>
@@ -596,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>1.048593803321494E-05</v>
+        <v>1.830134901482622E-06</v>
       </c>
       <c r="F3">
-        <v>9.999964314969116</v>
+        <v>9.999964314968988</v>
       </c>
       <c r="G3">
-        <v>75.06392710537742</v>
+        <v>11.25043709713153</v>
       </c>
       <c r="H3">
-        <v>11.64383573876643</v>
+        <v>3.001095772358931</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -620,10 +638,10 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>18.32782196423818</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -632,25 +650,31 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.20120519118385E-11</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.190458772066764E-05</v>
-      </c>
-      <c r="S3" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.201205191188667E-11</v>
       </c>
       <c r="T3">
-        <v>0.003006999999996651</v>
-      </c>
-      <c r="U3">
+        <v>2.388699762775137E-05</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3">
+        <v>0.00253309999970952</v>
+      </c>
+      <c r="W3">
         <v>12</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>0</v>
       </c>
@@ -664,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>359.9999928683418</v>
+        <v>-1.24471012645097E-06</v>
       </c>
       <c r="F4">
-        <v>10.00000782141135</v>
+        <v>10.00000782141152</v>
       </c>
       <c r="G4">
-        <v>78.47900985962981</v>
+        <v>3.244412312552768</v>
       </c>
       <c r="H4">
-        <v>3.311126204432766</v>
+        <v>0.6613210172362254</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -688,10 +712,10 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>9.618122158119826</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -700,25 +724,31 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.029153150447343E-11</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.352399115422742E-05</v>
-      </c>
-      <c r="S4" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.029153150692387E-11</v>
       </c>
       <c r="T4">
-        <v>0.001821799999998319</v>
-      </c>
-      <c r="U4">
+        <v>1.575385076724251E-05</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>0.00177480000002106</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>0</v>
       </c>
@@ -732,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>359.9999983657998</v>
+        <v>-2.85221921052964E-07</v>
       </c>
       <c r="F5">
-        <v>10.00000638469398</v>
+        <v>10.00000638469468</v>
       </c>
       <c r="G5">
-        <v>99.14362588436896</v>
+        <v>11.35168286492856</v>
       </c>
       <c r="H5">
-        <v>11.4977840972395</v>
+        <v>-1.827111184587107</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -756,10 +786,10 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>15.67687823027242</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -768,25 +798,31 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4.192870586377115E-13</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3.781624587285308E-06</v>
-      </c>
-      <c r="S5" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>4.192870583276289E-13</v>
       </c>
       <c r="T5">
-        <v>0.005400900000001485</v>
-      </c>
-      <c r="U5">
+        <v>4.027410463958389E-06</v>
+      </c>
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5">
+        <v>0.003941099999792641</v>
+      </c>
+      <c r="W5">
         <v>19</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>0</v>
       </c>
@@ -800,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>7.635906085360365E-07</v>
+        <v>1.332718963934864E-07</v>
       </c>
       <c r="F6">
-        <v>10.00001366503915</v>
+        <v>10.00001366503944</v>
       </c>
       <c r="G6">
-        <v>174.0653576147365</v>
+        <v>0.9891495465685037</v>
       </c>
       <c r="H6">
-        <v>9.566803989062123</v>
+        <v>-9.515530554817206</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -824,10 +860,10 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.673171010711503</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -836,25 +872,31 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.105600549579477E-11</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>7.245776661464422E-06</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.105600548615466E-11</v>
       </c>
       <c r="T6">
-        <v>0.004936600000000624</v>
-      </c>
-      <c r="U6">
+        <v>1.080882636466408E-05</v>
+      </c>
+      <c r="U6" t="s">
         <v>24</v>
       </c>
       <c r="V6">
+        <v>0.005688000000191096</v>
+      </c>
+      <c r="W6">
+        <v>24</v>
+      </c>
+      <c r="X6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>0</v>
       </c>
@@ -868,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>359.999997799542</v>
+        <v>-3.840525523819852E-07</v>
       </c>
       <c r="F7">
-        <v>10.00000586577904</v>
+        <v>10.00000586578021</v>
       </c>
       <c r="G7">
-        <v>39.95877760452755</v>
+        <v>8.63730722217136</v>
       </c>
       <c r="H7">
-        <v>13.44879948656141</v>
+        <v>10.30859503422033</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -892,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>22.87529985576693</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -904,25 +946,31 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9.795478155964538E-13</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>3.893771112025127E-06</v>
-      </c>
-      <c r="S7" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>9.795478159743863E-13</v>
       </c>
       <c r="T7">
-        <v>0.001906899999998046</v>
-      </c>
-      <c r="U7">
+        <v>4.331347055631942E-06</v>
+      </c>
+      <c r="U7" t="s">
+        <v>24</v>
+      </c>
+      <c r="V7">
+        <v>0.00185570000030566</v>
+      </c>
+      <c r="W7">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>0</v>
       </c>
@@ -936,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>359.9999985466735</v>
+        <v>-2.536534453430517E-07</v>
       </c>
       <c r="F8">
-        <v>10.00000459302722</v>
+        <v>10.00000459302731</v>
       </c>
       <c r="G8">
-        <v>160.7148167196755</v>
+        <v>2.306529431475159</v>
       </c>
       <c r="H8">
-        <v>6.983762488248292</v>
+        <v>-6.591878372209501</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -960,10 +1008,10 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>3.973338297383755</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -972,25 +1020,31 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.202330829481412E-13</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>3.119397351358383E-06</v>
-      </c>
-      <c r="S8" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.202330827509571E-13</v>
       </c>
       <c r="T8">
-        <v>0.004852799999998325</v>
-      </c>
-      <c r="U8">
+        <v>3.497283171938643E-06</v>
+      </c>
+      <c r="U8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8">
+        <v>0.004936000000270724</v>
+      </c>
+      <c r="W8">
         <v>27</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1004,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.9999995571344</v>
+        <v>-7.729462459921513E-08</v>
       </c>
       <c r="F9">
-        <v>10.00000015226451</v>
+        <v>10.0000001522656</v>
       </c>
       <c r="G9">
-        <v>13.73549272222773</v>
+        <v>2.934526798916237</v>
       </c>
       <c r="H9">
-        <v>12.35902765546493</v>
+        <v>12.00558691005859</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1028,10 +1082,10 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>22.28974380606835</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1040,25 +1094,31 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.667237977564671E-14</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>5.865850231176938E-07</v>
-      </c>
-      <c r="S9" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2.667237992195763E-14</v>
       </c>
       <c r="T9">
-        <v>0.001832600000000184</v>
-      </c>
-      <c r="U9">
+        <v>7.349987693344789E-07</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9">
+        <v>0.001576399999976275</v>
+      </c>
+      <c r="W9">
         <v>8</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1072,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>359.9999973566445</v>
+        <v>-4.613543510999297E-07</v>
       </c>
       <c r="F10">
-        <v>10.0000393043844</v>
+        <v>10.00003930438402</v>
       </c>
       <c r="G10">
-        <v>157.2172718747665</v>
+        <v>5.662405577073935</v>
       </c>
       <c r="H10">
-        <v>14.62255865977057</v>
+        <v>-13.48170556120883</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1096,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.86534188679525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1108,25 +1168,31 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8.720055739713629E-11</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.981582193293519E-05</v>
-      </c>
-      <c r="S10" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>8.720055738857917E-11</v>
       </c>
       <c r="T10">
-        <v>0.004102000000003159</v>
-      </c>
-      <c r="U10">
+        <v>2.464145415047687E-05</v>
+      </c>
+      <c r="U10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V10">
+        <v>0.004521699999713746</v>
+      </c>
+      <c r="W10">
         <v>23</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1140,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>6.837270585955498E-07</v>
+        <v>1.193329268677796E-07</v>
       </c>
       <c r="F11">
-        <v>10.00000339054338</v>
+        <v>10.00000339054271</v>
       </c>
       <c r="G11">
-        <v>1.867346498019331</v>
+        <v>0.2940030040309567</v>
       </c>
       <c r="H11">
-        <v>9.022489302555952</v>
+        <v>9.017697901812769</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1164,10 +1230,10 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>18.26849864379155</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1176,21 +1242,27 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.241788418362956E-13</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>2.374046425932326E-06</v>
-      </c>
-      <c r="S11" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.241788416130626E-13</v>
       </c>
       <c r="T11">
-        <v>0.001526899999998221</v>
-      </c>
-      <c r="U11">
-        <v>7</v>
+        <v>1.992891215492327E-06</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
       </c>
       <c r="V11">
+        <v>0.001598400000148104</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+      <c r="X11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.0.xlsx
+++ b/tests/tests8/ЛМ 0.0.xlsx
@@ -540,16 +540,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-2.806986808480048E-07</v>
+        <v>359.999998391716</v>
       </c>
       <c r="F2">
-        <v>10.00000630641778</v>
+        <v>10.00000630641779</v>
       </c>
       <c r="G2">
-        <v>11.44635954958485</v>
+        <v>98.78643414126417</v>
       </c>
       <c r="H2">
-        <v>-1.769215088986073</v>
+        <v>11.58228254574495</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>24</v>
       </c>
       <c r="V2">
-        <v>0.005324599999767088</v>
+        <v>0.004845099999999825</v>
       </c>
       <c r="W2">
         <v>19</v>
@@ -614,16 +614,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>1.830134901482622E-06</v>
+        <v>1.048593799504829E-05</v>
       </c>
       <c r="F3">
-        <v>9.999964314968988</v>
+        <v>9.999964314969155</v>
       </c>
       <c r="G3">
-        <v>11.25043709713153</v>
+        <v>75.06392710537374</v>
       </c>
       <c r="H3">
-        <v>3.001095772358931</v>
+        <v>11.64383573876684</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="V3">
-        <v>0.00253309999970952</v>
+        <v>0.003140600000000049</v>
       </c>
       <c r="W3">
         <v>12</v>
@@ -688,16 +688,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>-1.24471012645097E-06</v>
+        <v>359.9999928683418</v>
       </c>
       <c r="F4">
-        <v>10.00000782141152</v>
+        <v>10.0000078214116</v>
       </c>
       <c r="G4">
-        <v>3.244412312552768</v>
+        <v>78.47900985962086</v>
       </c>
       <c r="H4">
-        <v>0.6613210172362254</v>
+        <v>3.31112620443292</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>24</v>
       </c>
       <c r="V4">
-        <v>0.00177480000002106</v>
+        <v>0.001740600000000203</v>
       </c>
       <c r="W4">
         <v>8</v>
@@ -762,16 +762,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>-2.85221921052964E-07</v>
+        <v>359.9999983657998</v>
       </c>
       <c r="F5">
         <v>10.00000638469468</v>
       </c>
       <c r="G5">
-        <v>11.35168286492856</v>
+        <v>99.14362588437038</v>
       </c>
       <c r="H5">
-        <v>-1.827111184587107</v>
+        <v>11.49778409724048</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>24</v>
       </c>
       <c r="V5">
-        <v>0.003941099999792641</v>
+        <v>0.004882700000000018</v>
       </c>
       <c r="W5">
         <v>19</v>
@@ -836,16 +836,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>1.332718963934864E-07</v>
+        <v>7.635906721471302E-07</v>
       </c>
       <c r="F6">
         <v>10.00001366503944</v>
       </c>
       <c r="G6">
-        <v>0.9891495465685037</v>
+        <v>174.0653576147365</v>
       </c>
       <c r="H6">
-        <v>-9.515530554817206</v>
+        <v>9.566803989062205</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>24</v>
       </c>
       <c r="V6">
-        <v>0.005688000000191096</v>
+        <v>0.005040399999999945</v>
       </c>
       <c r="W6">
         <v>24</v>
@@ -910,16 +910,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-3.840525523819852E-07</v>
+        <v>359.9999977995423</v>
       </c>
       <c r="F7">
-        <v>10.00000586578021</v>
+        <v>10.00000586578022</v>
       </c>
       <c r="G7">
-        <v>8.63730722217136</v>
+        <v>39.95877760453146</v>
       </c>
       <c r="H7">
-        <v>10.30859503422033</v>
+        <v>13.44879948656108</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="V7">
-        <v>0.00185570000030566</v>
+        <v>0.002067599999999725</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -984,16 +984,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>-2.536534453430517E-07</v>
+        <v>359.9999985466735</v>
       </c>
       <c r="F8">
         <v>10.00000459302731</v>
       </c>
       <c r="G8">
-        <v>2.306529431475159</v>
+        <v>160.7148167196753</v>
       </c>
       <c r="H8">
-        <v>-6.591878372209501</v>
+        <v>6.983762488248329</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="V8">
-        <v>0.004936000000270724</v>
+        <v>0.004958099999999632</v>
       </c>
       <c r="W8">
         <v>27</v>
@@ -1058,16 +1058,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>-7.729462459921513E-08</v>
+        <v>359.9999995571344</v>
       </c>
       <c r="F9">
         <v>10.0000001522656</v>
       </c>
       <c r="G9">
-        <v>2.934526798916237</v>
+        <v>13.7354927222292</v>
       </c>
       <c r="H9">
-        <v>12.00558691005859</v>
+        <v>12.35902765546415</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="V9">
-        <v>0.001576399999976275</v>
+        <v>0.001780699999999857</v>
       </c>
       <c r="W9">
         <v>8</v>
@@ -1132,16 +1132,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-4.613543510999297E-07</v>
+        <v>359.9999973566447</v>
       </c>
       <c r="F10">
-        <v>10.00003930438402</v>
+        <v>10.00003930438403</v>
       </c>
       <c r="G10">
-        <v>5.662405577073935</v>
+        <v>157.2172718747671</v>
       </c>
       <c r="H10">
-        <v>-13.48170556120883</v>
+        <v>14.62255865976974</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="V10">
-        <v>0.004521699999713746</v>
+        <v>0.00418990000000008</v>
       </c>
       <c r="W10">
         <v>23</v>
@@ -1206,16 +1206,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>1.193329268677796E-07</v>
+        <v>6.837270713177686E-07</v>
       </c>
       <c r="F11">
         <v>10.00000339054271</v>
       </c>
       <c r="G11">
-        <v>0.2940030040309567</v>
+        <v>1.867346498018962</v>
       </c>
       <c r="H11">
-        <v>9.017697901812769</v>
+        <v>9.022489302556009</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>24</v>
       </c>
       <c r="V11">
-        <v>0.001598400000148104</v>
+        <v>0.001943199999999923</v>
       </c>
       <c r="W11">
         <v>7</v>

--- a/tests/tests8/ЛМ 0.0.xlsx
+++ b/tests/tests8/ЛМ 0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>СКО X</t>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +531,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>0</v>
       </c>
@@ -564,16 +576,16 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="N2">
         <v>15.80711097780685</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>70.5612830759225</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>15.80712314885331</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -582,25 +594,31 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>4.061687680001082E-13</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>3.970926019748841E-06</v>
       </c>
-      <c r="U2" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2">
-        <v>0.004845099999999825</v>
-      </c>
-      <c r="W2">
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2">
+        <v>0.005586799999974801</v>
+      </c>
+      <c r="Y2">
         <v>19</v>
       </c>
-      <c r="X2">
+      <c r="Z2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>0</v>
       </c>
@@ -638,16 +656,16 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="N3">
         <v>18.32782196423818</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>53.17591615963764</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>18.32774032244921</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -656,25 +674,31 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>2.201205191188667E-11</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>2.388699762775137E-05</v>
       </c>
-      <c r="U3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V3">
-        <v>0.003140600000000049</v>
-      </c>
-      <c r="W3">
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3">
+        <v>0.003208100000023251</v>
+      </c>
+      <c r="Y3">
         <v>12</v>
       </c>
-      <c r="X3">
+      <c r="Z3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>0</v>
       </c>
@@ -712,16 +736,16 @@
         <v>7</v>
       </c>
       <c r="M4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="N4">
         <v>9.618122158119826</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>31.76785051442912</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>9.61814121206559</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -730,25 +754,31 @@
         <v>0</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>1.029153150692387E-11</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>1.575385076724251E-05</v>
       </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4">
-        <v>0.001740600000000203</v>
-      </c>
-      <c r="W4">
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4">
+        <v>0.001766000000003487</v>
+      </c>
+      <c r="Y4">
         <v>8</v>
       </c>
-      <c r="X4">
+      <c r="Z4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>0</v>
       </c>
@@ -786,16 +816,16 @@
         <v>7</v>
       </c>
       <c r="M5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="N5">
         <v>15.67687823027242</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>70.6625395333884</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>15.67689046835905</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -804,25 +834,31 @@
         <v>0</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>4.192870583276289E-13</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>4.027410463958389E-06</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5">
-        <v>0.004882700000000018</v>
-      </c>
-      <c r="W5">
+      <c r="W5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <v>0.00422040000000834</v>
+      </c>
+      <c r="Y5">
         <v>19</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>0</v>
       </c>
@@ -860,16 +896,16 @@
         <v>7</v>
       </c>
       <c r="M6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="N6">
         <v>4.673171010711503</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>149.7044607123198</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>4.673178969737943</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -878,25 +914,31 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>2.105600548615466E-11</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>1.080882636466408E-05</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6">
+        <v>0.006478099999981168</v>
+      </c>
+      <c r="Y6">
         <v>24</v>
       </c>
-      <c r="V6">
-        <v>0.005040399999999945</v>
-      </c>
-      <c r="W6">
-        <v>24</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>0</v>
       </c>
@@ -934,16 +976,16 @@
         <v>7</v>
       </c>
       <c r="M7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="N7">
         <v>22.87529985576693</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>30.28257362969415</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>22.87531837841759</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -952,25 +994,31 @@
         <v>0</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>9.795478159743863E-13</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>4.331347055631942E-06</v>
       </c>
-      <c r="U7" t="s">
-        <v>24</v>
-      </c>
-      <c r="V7">
-        <v>0.002067599999999725</v>
-      </c>
-      <c r="W7">
+      <c r="W7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7">
+        <v>0.002725999999995565</v>
+      </c>
+      <c r="Y7">
         <v>9</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1008,16 +1056,16 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="N8">
         <v>3.973338297383755</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>97.6161794822581</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3.973341431421873</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1026,25 +1074,31 @@
         <v>0</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>2.202330827509571E-13</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>3.497283171938643E-06</v>
       </c>
-      <c r="U8" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8">
-        <v>0.004958099999999632</v>
-      </c>
-      <c r="W8">
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8">
+        <v>0.005049600000006649</v>
+      </c>
+      <c r="Y8">
         <v>27</v>
       </c>
-      <c r="X8">
+      <c r="Z8">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1082,16 +1136,16 @@
         <v>7</v>
       </c>
       <c r="M9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="N9">
         <v>22.28974380606835</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.15137798221169</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>22.28974651142262</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1100,25 +1154,31 @@
         <v>0</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>2.667237992195763E-14</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>7.349987693344789E-07</v>
       </c>
-      <c r="U9" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9">
-        <v>0.001780699999999857</v>
-      </c>
-      <c r="W9">
+      <c r="W9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9">
+        <v>0.001687200000020539</v>
+      </c>
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1156,16 +1216,16 @@
         <v>7</v>
       </c>
       <c r="M10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="N10">
         <v>11.86534188679525</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>137.8318630433311</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>11.86539457926841</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1174,25 +1234,31 @@
         <v>0</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>8.720055738857917E-11</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>2.464145415047687E-05</v>
       </c>
-      <c r="U10" t="s">
-        <v>24</v>
-      </c>
-      <c r="V10">
-        <v>0.00418990000000008</v>
-      </c>
-      <c r="W10">
+      <c r="W10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10">
+        <v>0.0047623000000101</v>
+      </c>
+      <c r="Y10">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="Z10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1230,16 +1296,16 @@
         <v>7</v>
       </c>
       <c r="M11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="N11">
         <v>18.26849864379155</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.782971812809018</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>18.26849506606975</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1248,21 +1314,27 @@
         <v>0</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>1.241788416130626E-13</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>1.992891215492327E-06</v>
       </c>
-      <c r="U11" t="s">
-        <v>24</v>
-      </c>
-      <c r="V11">
-        <v>0.001943199999999923</v>
-      </c>
-      <c r="W11">
+      <c r="W11" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11">
+        <v>0.001527699999996912</v>
+      </c>
+      <c r="Y11">
         <v>7</v>
       </c>
-      <c r="X11">
+      <c r="Z11">
         <v>6</v>
       </c>
     </row>

--- a/tests/tests8/ЛМ 0.0.xlsx
+++ b/tests/tests8/ЛМ 0.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="27">
   <si>
     <t>П0_ист</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +609,7 @@
         <v>26</v>
       </c>
       <c r="X2">
-        <v>0.005586799999974801</v>
+        <v>0.004285300000020698</v>
       </c>
       <c r="Y2">
         <v>19</v>
@@ -689,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="X3">
-        <v>0.003208100000023251</v>
+        <v>0.002759399999973766</v>
       </c>
       <c r="Y3">
         <v>12</v>
@@ -769,7 +769,7 @@
         <v>26</v>
       </c>
       <c r="X4">
-        <v>0.001766000000003487</v>
+        <v>0.002906400000000531</v>
       </c>
       <c r="Y4">
         <v>8</v>
@@ -849,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="X5">
-        <v>0.00422040000000834</v>
+        <v>0.006879400000002533</v>
       </c>
       <c r="Y5">
         <v>19</v>
@@ -929,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="X6">
-        <v>0.006478099999981168</v>
+        <v>0.007297300000004725</v>
       </c>
       <c r="Y6">
         <v>24</v>
@@ -1009,7 +1009,7 @@
         <v>26</v>
       </c>
       <c r="X7">
-        <v>0.002725999999995565</v>
+        <v>0.002473099999974693</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="X8">
-        <v>0.005049600000006649</v>
+        <v>0.008204700000021603</v>
       </c>
       <c r="Y8">
         <v>27</v>
@@ -1169,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="X9">
-        <v>0.001687200000020539</v>
+        <v>0.002730299999996078</v>
       </c>
       <c r="Y9">
         <v>8</v>
@@ -1249,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="X10">
-        <v>0.0047623000000101</v>
+        <v>0.008055299999995214</v>
       </c>
       <c r="Y10">
         <v>23</v>
@@ -1329,13 +1329,7213 @@
         <v>26</v>
       </c>
       <c r="X11">
-        <v>0.001527699999996912</v>
+        <v>0.001516100000003462</v>
       </c>
       <c r="Y11">
         <v>7</v>
       </c>
       <c r="Z11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.9999993737241</v>
+      </c>
+      <c r="F12">
+        <v>10.00000077986168</v>
+      </c>
+      <c r="G12">
+        <v>138.8377044790234</v>
+      </c>
+      <c r="H12">
+        <v>3.249023867619183</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="N12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="O12">
+        <v>40.03006412376833</v>
+      </c>
+      <c r="P12">
+        <v>5.80954833232747</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1.098779865144399E-13</v>
+      </c>
+      <c r="V12">
+        <v>1.229845820822401E-06</v>
+      </c>
+      <c r="W12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>0.003119700000013381</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>359.999999477279</v>
+      </c>
+      <c r="F13">
+        <v>9.99999986218983</v>
+      </c>
+      <c r="G13">
+        <v>32.44853974845829</v>
+      </c>
+      <c r="H13">
+        <v>3.233704124883108</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="N13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="O13">
+        <v>16.97012219202338</v>
+      </c>
+      <c r="P13">
+        <v>11.14346151707569</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>4.235575304508372E-14</v>
+      </c>
+      <c r="V13">
+        <v>1.343023047172263E-06</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>0.001644999999996344</v>
+      </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>359.9999908715256</v>
+      </c>
+      <c r="F14">
+        <v>10.00001566482051</v>
+      </c>
+      <c r="G14">
+        <v>27.74933240386759</v>
+      </c>
+      <c r="H14">
+        <v>11.8806366161502</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="N14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="O14">
+        <v>21.32605463150229</v>
+      </c>
+      <c r="P14">
+        <v>21.47099652996899</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1.464066661909941E-11</v>
+      </c>
+      <c r="V14">
+        <v>1.600197802715963E-05</v>
+      </c>
+      <c r="W14" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14">
+        <v>0.001752199999998538</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>359.9999897901361</v>
+      </c>
+      <c r="F15">
+        <v>10.00002412268725</v>
+      </c>
+      <c r="G15">
+        <v>139.9863658742052</v>
+      </c>
+      <c r="H15">
+        <v>5.850518987504189</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="N15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="O15">
+        <v>70.5569896842089</v>
+      </c>
+      <c r="P15">
+        <v>6.028275543032231</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1.928798899915107E-11</v>
+      </c>
+      <c r="V15">
+        <v>2.143302206224471E-05</v>
+      </c>
+      <c r="W15" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15">
+        <v>0.004316299999999273</v>
+      </c>
+      <c r="Y15">
+        <v>21</v>
+      </c>
+      <c r="Z15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>359.9999993315916</v>
+      </c>
+      <c r="F16">
+        <v>10.00000264540536</v>
+      </c>
+      <c r="G16">
+        <v>92.50980364936831</v>
+      </c>
+      <c r="H16">
+        <v>12.27798505127449</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="N16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="O16">
+        <v>67.0195928876487</v>
+      </c>
+      <c r="P16">
+        <v>17.25965653098033</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>7.402667500220759E-14</v>
+      </c>
+      <c r="V16">
+        <v>1.658038528717958E-06</v>
+      </c>
+      <c r="W16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16">
+        <v>0.003566300000017009</v>
+      </c>
+      <c r="Y16">
+        <v>19</v>
+      </c>
+      <c r="Z16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>359.9999981820806</v>
+      </c>
+      <c r="F17">
+        <v>10.00000353113853</v>
+      </c>
+      <c r="G17">
+        <v>152.7871677796498</v>
+      </c>
+      <c r="H17">
+        <v>5.146754056948661</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>25</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="N17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="O17">
+        <v>64.6668777755164</v>
+      </c>
+      <c r="P17">
+        <v>4.419797018151031</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>7.396020629274658E-13</v>
+      </c>
+      <c r="V17">
+        <v>3.616364455474136E-06</v>
+      </c>
+      <c r="W17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17">
+        <v>0.003840900000000147</v>
+      </c>
+      <c r="Y17">
+        <v>21</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>359.9999995765869</v>
+      </c>
+      <c r="F18">
+        <v>10.00000077777322</v>
+      </c>
+      <c r="G18">
+        <v>40.19239519871811</v>
+      </c>
+      <c r="H18">
+        <v>9.277961593760482</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="N18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="O18">
+        <v>27.73953381349942</v>
+      </c>
+      <c r="P18">
+        <v>17.95147080728675</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>3.392763127219398E-14</v>
+      </c>
+      <c r="V18">
+        <v>7.5903825539447E-07</v>
+      </c>
+      <c r="W18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18">
+        <v>0.001868300000012368</v>
+      </c>
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9999977528142</v>
+      </c>
+      <c r="F19">
+        <v>10.00000520305558</v>
+      </c>
+      <c r="G19">
+        <v>53.03970647967867</v>
+      </c>
+      <c r="H19">
+        <v>9.367049481523022</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+      <c r="K19">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="N19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="O19">
+        <v>35.67338447471086</v>
+      </c>
+      <c r="P19">
+        <v>17.40877544675743</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1.034119673965113E-12</v>
+      </c>
+      <c r="V19">
+        <v>4.312128365078197E-06</v>
+      </c>
+      <c r="W19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X19">
+        <v>0.001800700000018196</v>
+      </c>
+      <c r="Y19">
+        <v>9</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9999976801775</v>
+      </c>
+      <c r="F20">
+        <v>10.00000812618337</v>
+      </c>
+      <c r="G20">
+        <v>117.067362768903</v>
+      </c>
+      <c r="H20">
+        <v>9.065451614421107</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="N20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="O20">
+        <v>77.36702703700439</v>
+      </c>
+      <c r="P20">
+        <v>11.12686190414805</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>7.723701280984486E-13</v>
+      </c>
+      <c r="V20">
+        <v>5.368181015965034E-06</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20">
+        <v>0.004124600000011469</v>
+      </c>
+      <c r="Y20">
+        <v>22</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9999987949781</v>
+      </c>
+      <c r="F21">
+        <v>10.0000010233917</v>
+      </c>
+      <c r="G21">
+        <v>17.55605031699417</v>
+      </c>
+      <c r="H21">
+        <v>12.13500212867478</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>25</v>
+      </c>
+      <c r="K21">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="N21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="O21">
+        <v>14.65846472196505</v>
+      </c>
+      <c r="P21">
+        <v>21.98288790479184</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>2.141832500037419E-13</v>
+      </c>
+      <c r="V21">
+        <v>2.008783167197903E-06</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>0.001614299999999957</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>359.999991232987</v>
+      </c>
+      <c r="F22">
+        <v>10.00004081373033</v>
+      </c>
+      <c r="G22">
+        <v>105.8635613190257</v>
+      </c>
+      <c r="H22">
+        <v>13.77263873764394</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="M22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="N22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="O22">
+        <v>80.46805627217793</v>
+      </c>
+      <c r="P22">
+        <v>17.30713993326846</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>9.535033106838905E-12</v>
+      </c>
+      <c r="V22">
+        <v>2.357919794503937E-05</v>
+      </c>
+      <c r="W22" t="s">
+        <v>26</v>
+      </c>
+      <c r="X22">
+        <v>0.004044499999992013</v>
+      </c>
+      <c r="Y22">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>359.9999857061318</v>
+      </c>
+      <c r="F23">
+        <v>9.999978231454405</v>
+      </c>
+      <c r="G23">
+        <v>8.770488374302175</v>
+      </c>
+      <c r="H23">
+        <v>6.469379086941225</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>90</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="N23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="O23">
+        <v>8.886799867586117</v>
+      </c>
+      <c r="P23">
+        <v>15.23903253458798</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>3.249838231974278E-11</v>
+      </c>
+      <c r="V23">
+        <v>3.250457334184283E-05</v>
+      </c>
+      <c r="W23" t="s">
+        <v>26</v>
+      </c>
+      <c r="X23">
+        <v>0.001517900000010286</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>359.9999872538498</v>
+      </c>
+      <c r="F24">
+        <v>10.00002052065971</v>
+      </c>
+      <c r="G24">
+        <v>37.52292140380968</v>
+      </c>
+      <c r="H24">
+        <v>8.780215369095007</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="N24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="O24">
+        <v>25.73746593850051</v>
+      </c>
+      <c r="P24">
+        <v>17.47356244503467</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>2.965731550664838E-11</v>
+      </c>
+      <c r="V24">
+        <v>2.23724370810548E-05</v>
+      </c>
+      <c r="W24" t="s">
+        <v>26</v>
+      </c>
+      <c r="X24">
+        <v>0.001791499999995949</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.9999975221878</v>
+      </c>
+      <c r="F25">
+        <v>10.00001102989687</v>
+      </c>
+      <c r="G25">
+        <v>93.11362612235318</v>
+      </c>
+      <c r="H25">
+        <v>14.36357182850023</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+      <c r="K25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="N25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="O25">
+        <v>70.67113042064263</v>
+      </c>
+      <c r="P25">
+        <v>19.47925745254389</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>9.094774090737578E-13</v>
+      </c>
+      <c r="V25">
+        <v>6.531935236308713E-06</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25">
+        <v>0.004132699999985334</v>
+      </c>
+      <c r="Y25">
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>6.099809620849526E-07</v>
+      </c>
+      <c r="F26">
+        <v>10.00001075874472</v>
+      </c>
+      <c r="G26">
+        <v>172.8031056400842</v>
+      </c>
+      <c r="H26">
+        <v>11.39415977597392</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="N26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="O26">
+        <v>154.9934363501958</v>
+      </c>
+      <c r="P26">
+        <v>6.8210281935699</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1.605564793298217E-11</v>
+      </c>
+      <c r="V26">
+        <v>7.910074299341568E-06</v>
+      </c>
+      <c r="W26" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26">
+        <v>0.005621099999984835</v>
+      </c>
+      <c r="Y26">
+        <v>26</v>
+      </c>
+      <c r="Z26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>359.9999936934807</v>
+      </c>
+      <c r="F27">
+        <v>10.00005362131236</v>
+      </c>
+      <c r="G27">
+        <v>156.6223037677045</v>
+      </c>
+      <c r="H27">
+        <v>9.987395545249241</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>90</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="N27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="O27">
+        <v>121.4008917932678</v>
+      </c>
+      <c r="P27">
+        <v>6.942756087616282</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>6.280085901210133E-11</v>
+      </c>
+      <c r="V27">
+        <v>3.468876315223636E-05</v>
+      </c>
+      <c r="W27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X27">
+        <v>0.004486700000001065</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>359.9999972923952</v>
+      </c>
+      <c r="F28">
+        <v>10.00000638675593</v>
+      </c>
+      <c r="G28">
+        <v>55.42829868516414</v>
+      </c>
+      <c r="H28">
+        <v>9.232707845928511</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28">
+        <v>90</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="N28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="O28">
+        <v>36.97831821214928</v>
+      </c>
+      <c r="P28">
+        <v>17.11234350946471</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1.513985679725748E-12</v>
+      </c>
+      <c r="V28">
+        <v>5.243564248649825E-06</v>
+      </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.002290299999998524</v>
+      </c>
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>1.273511104064429E-06</v>
+      </c>
+      <c r="F29">
+        <v>9.999995304824399</v>
+      </c>
+      <c r="G29">
+        <v>76.62984963706836</v>
+      </c>
+      <c r="H29">
+        <v>12.7749967949703</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>90</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="N29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="O29">
+        <v>55.80673926363959</v>
+      </c>
+      <c r="P29">
+        <v>19.44631350147289</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>3.126864795938189E-13</v>
+      </c>
+      <c r="V29">
+        <v>3.016965150615218E-06</v>
+      </c>
+      <c r="W29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X29">
+        <v>0.002677900000009004</v>
+      </c>
+      <c r="Y29">
+        <v>13</v>
+      </c>
+      <c r="Z29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.999993536175</v>
+      </c>
+      <c r="F30">
+        <v>10.00002678368233</v>
+      </c>
+      <c r="G30">
+        <v>131.2224643659333</v>
+      </c>
+      <c r="H30">
+        <v>9.734912854462312</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>90</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="N30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="O30">
+        <v>91.80925088418354</v>
+      </c>
+      <c r="P30">
+        <v>9.96203402024855</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>4.840037241241794E-12</v>
+      </c>
+      <c r="V30">
+        <v>1.628483680326535E-05</v>
+      </c>
+      <c r="W30" t="s">
+        <v>26</v>
+      </c>
+      <c r="X30">
+        <v>0.004219100000000253</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>359.9999961431774</v>
+      </c>
+      <c r="F31">
+        <v>10.000009821043</v>
+      </c>
+      <c r="G31">
+        <v>155.476769608107</v>
+      </c>
+      <c r="H31">
+        <v>6.418881472717161</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>25</v>
+      </c>
+      <c r="K31">
+        <v>90</v>
+      </c>
+      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="N31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="O31">
+        <v>85.0818607469613</v>
+      </c>
+      <c r="P31">
+        <v>4.38367497173548</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1.729554177851587E-12</v>
+      </c>
+      <c r="V31">
+        <v>7.737424794894733E-06</v>
+      </c>
+      <c r="W31" t="s">
+        <v>26</v>
+      </c>
+      <c r="X31">
+        <v>0.004977199999984805</v>
+      </c>
+      <c r="Y31">
+        <v>23</v>
+      </c>
+      <c r="Z31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>359.9999930833144</v>
+      </c>
+      <c r="F32">
+        <v>10.00002070810931</v>
+      </c>
+      <c r="G32">
+        <v>115.9458274019199</v>
+      </c>
+      <c r="H32">
+        <v>7.56900754081871</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>25</v>
+      </c>
+      <c r="K32">
+        <v>90</v>
+      </c>
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="N32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="O32">
+        <v>69.940097840796</v>
+      </c>
+      <c r="P32">
+        <v>9.940855272650994</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>8.458812991357795E-12</v>
+      </c>
+      <c r="V32">
+        <v>1.532382818449817E-05</v>
+      </c>
+      <c r="W32" t="s">
+        <v>26</v>
+      </c>
+      <c r="X32">
+        <v>0.003897899999998344</v>
+      </c>
+      <c r="Y32">
+        <v>21</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>359.9999866462958</v>
+      </c>
+      <c r="F33">
+        <v>10.00004405706443</v>
+      </c>
+      <c r="G33">
+        <v>51.48973502315306</v>
+      </c>
+      <c r="H33">
+        <v>14.49735218228753</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>90</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="N33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="O33">
+        <v>39.06161674117526</v>
+      </c>
+      <c r="P33">
+        <v>23.45992386878252</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>3.734996089404686E-11</v>
+      </c>
+      <c r="V33">
+        <v>2.905728696923572E-05</v>
+      </c>
+      <c r="W33" t="s">
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <v>0.002056399999986525</v>
+      </c>
+      <c r="Y33">
+        <v>9</v>
+      </c>
+      <c r="Z33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>359.9999989942087</v>
+      </c>
+      <c r="F34">
+        <v>10.00000347303357</v>
+      </c>
+      <c r="G34">
+        <v>154.600062089296</v>
+      </c>
+      <c r="H34">
+        <v>7.472537772344447</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>25</v>
+      </c>
+      <c r="K34">
+        <v>90</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="N34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="O34">
+        <v>98.12939215575425</v>
+      </c>
+      <c r="P34">
+        <v>5.067649549951771</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1.028611537314376E-13</v>
+      </c>
+      <c r="V34">
+        <v>2.409161063565198E-06</v>
+      </c>
+      <c r="W34" t="s">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <v>0.004981799999995928</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>359.9999995023976</v>
+      </c>
+      <c r="F35">
+        <v>10.00000090793871</v>
+      </c>
+      <c r="G35">
+        <v>44.73182396137223</v>
+      </c>
+      <c r="H35">
+        <v>8.399706672520971</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="N35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="O35">
+        <v>29.60621425656284</v>
+      </c>
+      <c r="P35">
+        <v>16.72833687085902</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>4.775724752674547E-14</v>
+      </c>
+      <c r="V35">
+        <v>8.98648148842865E-07</v>
+      </c>
+      <c r="W35" t="s">
+        <v>26</v>
+      </c>
+      <c r="X35">
+        <v>0.002068900000011809</v>
+      </c>
+      <c r="Y35">
+        <v>9</v>
+      </c>
+      <c r="Z35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9999983137844</v>
+      </c>
+      <c r="F36">
+        <v>9.999997909892468</v>
+      </c>
+      <c r="G36">
+        <v>6.941104640849672</v>
+      </c>
+      <c r="H36">
+        <v>12.36121560414199</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>90</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="N36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="O36">
+        <v>7.63354529356617</v>
+      </c>
+      <c r="P36">
+        <v>22.30605590223053</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>3.649402126390788E-13</v>
+      </c>
+      <c r="V36">
+        <v>3.07983344735144E-06</v>
+      </c>
+      <c r="W36" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36">
+        <v>0.00150840000000585</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="Z36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>359.9999990221237</v>
+      </c>
+      <c r="F37">
+        <v>10.00000232938858</v>
+      </c>
+      <c r="G37">
+        <v>82.44989134461434</v>
+      </c>
+      <c r="H37">
+        <v>6.700198206422543</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>90</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="N37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="O37">
+        <v>47.28303102102432</v>
+      </c>
+      <c r="P37">
+        <v>12.44156114166863</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>2.151530272883162E-13</v>
+      </c>
+      <c r="V37">
+        <v>1.9888098990912E-06</v>
+      </c>
+      <c r="W37" t="s">
+        <v>26</v>
+      </c>
+      <c r="X37">
+        <v>0.002383900000012318</v>
+      </c>
+      <c r="Y37">
+        <v>12</v>
+      </c>
+      <c r="Z37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>359.9999978057438</v>
+      </c>
+      <c r="F38">
+        <v>10.00000965433853</v>
+      </c>
+      <c r="G38">
+        <v>131.1312918674671</v>
+      </c>
+      <c r="H38">
+        <v>10.21938453929634</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>90</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="N38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="O38">
+        <v>93.75460241617746</v>
+      </c>
+      <c r="P38">
+        <v>10.42957986081166</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>5.843555598770124E-13</v>
+      </c>
+      <c r="V38">
+        <v>5.701556844666269E-06</v>
+      </c>
+      <c r="W38" t="s">
+        <v>26</v>
+      </c>
+      <c r="X38">
+        <v>0.005492199999991954</v>
+      </c>
+      <c r="Y38">
+        <v>26</v>
+      </c>
+      <c r="Z38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>359.9999989334607</v>
+      </c>
+      <c r="F39">
+        <v>10.00001855356209</v>
+      </c>
+      <c r="G39">
+        <v>170.0093657149474</v>
+      </c>
+      <c r="H39">
+        <v>8.569199846306955</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>90</v>
+      </c>
+      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="N39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="O39">
+        <v>132.8794657677053</v>
+      </c>
+      <c r="P39">
+        <v>4.031772483926306</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1.769427198347578E-11</v>
+      </c>
+      <c r="V39">
+        <v>1.472489494628989E-05</v>
+      </c>
+      <c r="W39" t="s">
+        <v>26</v>
+      </c>
+      <c r="X39">
+        <v>0.004699500000015178</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>7.60806923467726E-06</v>
+      </c>
+      <c r="F40">
+        <v>9.999972597271187</v>
+      </c>
+      <c r="G40">
+        <v>69.259134738626</v>
+      </c>
+      <c r="H40">
+        <v>13.31644541396274</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+      <c r="K40">
+        <v>90</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="N40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="O40">
+        <v>51.01421285102533</v>
+      </c>
+      <c r="P40">
+        <v>20.73141365856681</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1.157009185786576E-11</v>
+      </c>
+      <c r="V40">
+        <v>1.766090289268675E-05</v>
+      </c>
+      <c r="W40" t="s">
+        <v>26</v>
+      </c>
+      <c r="X40">
+        <v>0.002592800000002171</v>
+      </c>
+      <c r="Y40">
+        <v>12</v>
+      </c>
+      <c r="Z40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.9999970742402</v>
+      </c>
+      <c r="F41">
+        <v>10.00001217854743</v>
+      </c>
+      <c r="G41">
+        <v>98.44005492239123</v>
+      </c>
+      <c r="H41">
+        <v>12.57480896298222</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+      <c r="K41">
+        <v>90</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="N41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="O41">
+        <v>72.19762103038457</v>
+      </c>
+      <c r="P41">
+        <v>16.90633268732039</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1.272459394562979E-12</v>
+      </c>
+      <c r="V41">
+        <v>7.442282185243146E-06</v>
+      </c>
+      <c r="W41" t="s">
+        <v>26</v>
+      </c>
+      <c r="X41">
+        <v>0.003767899999985502</v>
+      </c>
+      <c r="Y41">
+        <v>19</v>
+      </c>
+      <c r="Z41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>359.9999915140953</v>
+      </c>
+      <c r="F42">
+        <v>10.00001003944609</v>
+      </c>
+      <c r="G42">
+        <v>73.38360365588623</v>
+      </c>
+      <c r="H42">
+        <v>3.664407337487275</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+      <c r="K42">
+        <v>90</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="M42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="N42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="O42">
+        <v>31.92626901691847</v>
+      </c>
+      <c r="P42">
+        <v>10.18122916071859</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1.456832197505463E-11</v>
+      </c>
+      <c r="V42">
+        <v>1.803391465141526E-05</v>
+      </c>
+      <c r="W42" t="s">
+        <v>26</v>
+      </c>
+      <c r="X42">
+        <v>0.001636700000005931</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+      <c r="Z42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>359.9999985916013</v>
+      </c>
+      <c r="F43">
+        <v>10.00000054260104</v>
+      </c>
+      <c r="G43">
+        <v>45.16624233789004</v>
+      </c>
+      <c r="H43">
+        <v>3.553152689182692</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>90</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="N43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="O43">
+        <v>21.98281848198625</v>
+      </c>
+      <c r="P43">
+        <v>11.2044330614122</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>3.194609145012289E-13</v>
+      </c>
+      <c r="V43">
+        <v>3.113896061062835E-06</v>
+      </c>
+      <c r="W43" t="s">
+        <v>26</v>
+      </c>
+      <c r="X43">
+        <v>0.002038400000003548</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>1.041690677824193E-05</v>
+      </c>
+      <c r="F44">
+        <v>9.999960703313201</v>
+      </c>
+      <c r="G44">
+        <v>67.41718360355564</v>
+      </c>
+      <c r="H44">
+        <v>14.40849804635999</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>90</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="N44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="O44">
+        <v>50.70286194063296</v>
+      </c>
+      <c r="P44">
+        <v>22.14182521303215</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>2.159107596818175E-11</v>
+      </c>
+      <c r="V44">
+        <v>2.46971475664599E-05</v>
+      </c>
+      <c r="W44" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44">
+        <v>0.002321700000010196</v>
+      </c>
+      <c r="Y44">
+        <v>12</v>
+      </c>
+      <c r="Z44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.9999984558253</v>
+      </c>
+      <c r="F45">
+        <v>10.00000127684751</v>
+      </c>
+      <c r="G45">
+        <v>20.70982428096261</v>
+      </c>
+      <c r="H45">
+        <v>10.30880457401636</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>90</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="N45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="O45">
+        <v>16.30649528802309</v>
+      </c>
+      <c r="P45">
+        <v>19.74930661680753</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>3.597815272197435E-13</v>
+      </c>
+      <c r="V45">
+        <v>2.572276490897104E-06</v>
+      </c>
+      <c r="W45" t="s">
+        <v>26</v>
+      </c>
+      <c r="X45">
+        <v>0.001600400000000946</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>359.9999960292973</v>
+      </c>
+      <c r="F46">
+        <v>10.00000664484539</v>
+      </c>
+      <c r="G46">
+        <v>150.271535536511</v>
+      </c>
+      <c r="H46">
+        <v>4.257557853665604</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>90</v>
+      </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="N46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="O46">
+        <v>51.49321348252047</v>
+      </c>
+      <c r="P46">
+        <v>4.733326167012175</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>4.926412137410807E-12</v>
+      </c>
+      <c r="V46">
+        <v>8.122318542806129E-06</v>
+      </c>
+      <c r="W46" t="s">
+        <v>26</v>
+      </c>
+      <c r="X46">
+        <v>0.004147799999998369</v>
+      </c>
+      <c r="Y46">
+        <v>17</v>
+      </c>
+      <c r="Z46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>5.694251368417686E-08</v>
+      </c>
+      <c r="F47">
+        <v>10.00000046130585</v>
+      </c>
+      <c r="G47">
+        <v>178.0220719666468</v>
+      </c>
+      <c r="H47">
+        <v>9.594537289433948</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>90</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="N47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="O47">
+        <v>159.1796692772982</v>
+      </c>
+      <c r="P47">
+        <v>4.410986124865536</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>3.731411603724328E-14</v>
+      </c>
+      <c r="V47">
+        <v>3.844941370897984E-07</v>
+      </c>
+      <c r="W47" t="s">
+        <v>26</v>
+      </c>
+      <c r="X47">
+        <v>0.005148200000007819</v>
+      </c>
+      <c r="Y47">
+        <v>27</v>
+      </c>
+      <c r="Z47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>359.9999976517781</v>
+      </c>
+      <c r="F48">
+        <v>10.00001288523323</v>
+      </c>
+      <c r="G48">
+        <v>141.089817716005</v>
+      </c>
+      <c r="H48">
+        <v>10.61802328403342</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>90</v>
+      </c>
+      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="M48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="N48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="O48">
+        <v>105.4244533378817</v>
+      </c>
+      <c r="P48">
+        <v>9.516243758534268</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1.353390068328105E-12</v>
+      </c>
+      <c r="V48">
+        <v>7.428536401378505E-06</v>
+      </c>
+      <c r="W48" t="s">
+        <v>26</v>
+      </c>
+      <c r="X48">
+        <v>0.005504399999978205</v>
+      </c>
+      <c r="Y48">
+        <v>26</v>
+      </c>
+      <c r="Z48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>359.9999955611606</v>
+      </c>
+      <c r="F49">
+        <v>10.00000741764167</v>
+      </c>
+      <c r="G49">
+        <v>20.42793468364197</v>
+      </c>
+      <c r="H49">
+        <v>14.69382149227054</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>90</v>
+      </c>
+      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="M49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="N49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="O49">
+        <v>17.03402227548252</v>
+      </c>
+      <c r="P49">
+        <v>25.00426410072334</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>3.286948512493064E-12</v>
+      </c>
+      <c r="V49">
+        <v>7.815563927585734E-06</v>
+      </c>
+      <c r="W49" t="s">
+        <v>26</v>
+      </c>
+      <c r="X49">
+        <v>0.001852799999994659</v>
+      </c>
+      <c r="Y49">
+        <v>8</v>
+      </c>
+      <c r="Z49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>3.24538000909242E-06</v>
+      </c>
+      <c r="F50">
+        <v>10.0000083677286</v>
+      </c>
+      <c r="G50">
+        <v>3.148242926530771</v>
+      </c>
+      <c r="H50">
+        <v>13.69885261364394</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>90</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="N50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="O50">
+        <v>4.979089462510021</v>
+      </c>
+      <c r="P50">
+        <v>23.88760086038566</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>1.532828245892414E-12</v>
+      </c>
+      <c r="V50">
+        <v>7.13325872433912E-06</v>
+      </c>
+      <c r="W50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X50">
+        <v>0.001511300000004212</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="Z50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>359.999983521649</v>
+      </c>
+      <c r="F51">
+        <v>10.00002526981403</v>
+      </c>
+      <c r="G51">
+        <v>54.17360614832623</v>
+      </c>
+      <c r="H51">
+        <v>5.964782982423285</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>90</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="N51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="O51">
+        <v>31.07254252498718</v>
+      </c>
+      <c r="P51">
+        <v>13.51210174649101</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>5.322226184092811E-11</v>
+      </c>
+      <c r="V51">
+        <v>2.985449689487239E-05</v>
+      </c>
+      <c r="W51" t="s">
+        <v>26</v>
+      </c>
+      <c r="X51">
+        <v>0.001726899999994203</v>
+      </c>
+      <c r="Y51">
+        <v>8</v>
+      </c>
+      <c r="Z51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>359.9999991784259</v>
+      </c>
+      <c r="F52">
+        <v>10.00000181371959</v>
+      </c>
+      <c r="G52">
+        <v>89.02829530876517</v>
+      </c>
+      <c r="H52">
+        <v>5.736999383149486</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>90</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="N52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="O52">
+        <v>47.03792143423282</v>
+      </c>
+      <c r="P52">
+        <v>11.00547833519484</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1.576881275229691E-13</v>
+      </c>
+      <c r="V52">
+        <v>1.687472942086019E-06</v>
+      </c>
+      <c r="W52" t="s">
+        <v>26</v>
+      </c>
+      <c r="X52">
+        <v>0.002509800000012774</v>
+      </c>
+      <c r="Y52">
+        <v>12</v>
+      </c>
+      <c r="Z52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>359.9999981153345</v>
+      </c>
+      <c r="F53">
+        <v>10.00000294364469</v>
+      </c>
+      <c r="G53">
+        <v>121.6316291646671</v>
+      </c>
+      <c r="H53">
+        <v>3.536548693583726</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>90</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="N53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="O53">
+        <v>42.84508692169751</v>
+      </c>
+      <c r="P53">
+        <v>7.034859205015147</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>9.669017667037071E-13</v>
+      </c>
+      <c r="V53">
+        <v>4.141512560574125E-06</v>
+      </c>
+      <c r="W53" t="s">
+        <v>26</v>
+      </c>
+      <c r="X53">
+        <v>0.002551400000015747</v>
+      </c>
+      <c r="Y53">
+        <v>14</v>
+      </c>
+      <c r="Z53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.9999995818094</v>
+      </c>
+      <c r="F54">
+        <v>10.00000045819691</v>
+      </c>
+      <c r="G54">
+        <v>148.1598538131666</v>
+      </c>
+      <c r="H54">
+        <v>3.313415985750105</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>90</v>
+      </c>
+      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="M54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="N54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="O54">
+        <v>39.20823581678925</v>
+      </c>
+      <c r="P54">
+        <v>5.169814139108547</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>4.945538479722088E-14</v>
+      </c>
+      <c r="V54">
+        <v>7.372641503231883E-07</v>
+      </c>
+      <c r="W54" t="s">
+        <v>26</v>
+      </c>
+      <c r="X54">
+        <v>0.002894300000008343</v>
+      </c>
+      <c r="Y54">
+        <v>14</v>
+      </c>
+      <c r="Z54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>359.9999987598288</v>
+      </c>
+      <c r="F55">
+        <v>10.00000793627781</v>
+      </c>
+      <c r="G55">
+        <v>152.3992273232796</v>
+      </c>
+      <c r="H55">
+        <v>9.733997139194932</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>90</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="N55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="O55">
+        <v>114.2699198288106</v>
+      </c>
+      <c r="P55">
+        <v>7.220405528488172</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>8.514200463791337E-13</v>
+      </c>
+      <c r="V55">
+        <v>4.997063952315918E-06</v>
+      </c>
+      <c r="W55" t="s">
+        <v>26</v>
+      </c>
+      <c r="X55">
+        <v>0.004901300000000219</v>
+      </c>
+      <c r="Y55">
+        <v>26</v>
+      </c>
+      <c r="Z55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>359.999994501838</v>
+      </c>
+      <c r="F56">
+        <v>10.00001333759046</v>
+      </c>
+      <c r="G56">
+        <v>75.63294265298192</v>
+      </c>
+      <c r="H56">
+        <v>7.358891630161279</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>25</v>
+      </c>
+      <c r="K56">
+        <v>90</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="N56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="O56">
+        <v>45.44566100966411</v>
+      </c>
+      <c r="P56">
+        <v>13.64742079331714</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>6.636845505895806E-12</v>
+      </c>
+      <c r="V56">
+        <v>1.113644280206111E-05</v>
+      </c>
+      <c r="W56" t="s">
+        <v>26</v>
+      </c>
+      <c r="X56">
+        <v>0.002052600000013172</v>
+      </c>
+      <c r="Y56">
+        <v>9</v>
+      </c>
+      <c r="Z56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>359.9999983202393</v>
+      </c>
+      <c r="F57">
+        <v>10.00000208121173</v>
+      </c>
+      <c r="G57">
+        <v>16.75949483247291</v>
+      </c>
+      <c r="H57">
+        <v>14.6598802421091</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>90</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="M57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="N57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="O57">
+        <v>14.44967085937339</v>
+      </c>
+      <c r="P57">
+        <v>25.01970006964968</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>4.323837739129706E-13</v>
+      </c>
+      <c r="V57">
+        <v>2.874319250971626E-06</v>
+      </c>
+      <c r="W57" t="s">
+        <v>26</v>
+      </c>
+      <c r="X57">
+        <v>0.001711199999988366</v>
+      </c>
+      <c r="Y57">
+        <v>8</v>
+      </c>
+      <c r="Z57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>359.999999970003</v>
+      </c>
+      <c r="F58">
+        <v>10.00000040921261</v>
+      </c>
+      <c r="G58">
+        <v>177.1545322620491</v>
+      </c>
+      <c r="H58">
+        <v>7.000947594146047</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>25</v>
+      </c>
+      <c r="K58">
+        <v>90</v>
+      </c>
+      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="M58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="N58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="O58">
+        <v>122.3917350327162</v>
+      </c>
+      <c r="P58">
+        <v>1.880029256453952</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1.637912772693474E-14</v>
+      </c>
+      <c r="V58">
+        <v>4.497836483397769E-07</v>
+      </c>
+      <c r="W58" t="s">
+        <v>26</v>
+      </c>
+      <c r="X58">
+        <v>0.004684700000012754</v>
+      </c>
+      <c r="Y58">
+        <v>26</v>
+      </c>
+      <c r="Z58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>359.999999668203</v>
+      </c>
+      <c r="F59">
+        <v>9.99999977257254</v>
+      </c>
+      <c r="G59">
+        <v>15.72293552701952</v>
+      </c>
+      <c r="H59">
+        <v>5.765726330109509</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>90</v>
+      </c>
+      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="M59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="N59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="O59">
+        <v>12.23519168720586</v>
+      </c>
+      <c r="P59">
+        <v>14.37003000642201</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>1.61454495227149E-14</v>
+      </c>
+      <c r="V59">
+        <v>6.787204930228921E-07</v>
+      </c>
+      <c r="W59" t="s">
+        <v>26</v>
+      </c>
+      <c r="X59">
+        <v>0.001889899999980571</v>
+      </c>
+      <c r="Y59">
+        <v>8</v>
+      </c>
+      <c r="Z59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>359.9999953293054</v>
+      </c>
+      <c r="F60">
+        <v>10.00001147037496</v>
+      </c>
+      <c r="G60">
+        <v>65.71901606816525</v>
+      </c>
+      <c r="H60">
+        <v>8.414487545169333</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>25</v>
+      </c>
+      <c r="K60">
+        <v>90</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="N60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="O60">
+        <v>41.96632249224849</v>
+      </c>
+      <c r="P60">
+        <v>15.5147596257017</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>4.643208225846842E-12</v>
+      </c>
+      <c r="V60">
+        <v>9.3256004585381E-06</v>
+      </c>
+      <c r="W60" t="s">
+        <v>26</v>
+      </c>
+      <c r="X60">
+        <v>0.001934700000020939</v>
+      </c>
+      <c r="Y60">
+        <v>9</v>
+      </c>
+      <c r="Z60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>359.9999905657276</v>
+      </c>
+      <c r="F61">
+        <v>10.0000146264702</v>
+      </c>
+      <c r="G61">
+        <v>166.3262153657368</v>
+      </c>
+      <c r="H61">
+        <v>4.894456003355943</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>90</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="N61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="O61">
+        <v>56.76410288951995</v>
+      </c>
+      <c r="P61">
+        <v>3.059313310573479</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>2.648129721352512E-11</v>
+      </c>
+      <c r="V61">
+        <v>1.772107219258089E-05</v>
+      </c>
+      <c r="W61" t="s">
+        <v>26</v>
+      </c>
+      <c r="X61">
+        <v>0.003798299999999699</v>
+      </c>
+      <c r="Y61">
+        <v>20</v>
+      </c>
+      <c r="Z61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>359.9999898461233</v>
+      </c>
+      <c r="F62">
+        <v>10.00001338294409</v>
+      </c>
+      <c r="G62">
+        <v>54.15718938598868</v>
+      </c>
+      <c r="H62">
+        <v>5.243372903713757</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62">
+        <v>90</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="N62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="O62">
+        <v>29.53510312576244</v>
+      </c>
+      <c r="P62">
+        <v>12.72110287001364</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>1.969738550191512E-11</v>
+      </c>
+      <c r="V62">
+        <v>1.875916567491538E-05</v>
+      </c>
+      <c r="W62" t="s">
+        <v>26</v>
+      </c>
+      <c r="X62">
+        <v>0.002074599999986049</v>
+      </c>
+      <c r="Y62">
+        <v>8</v>
+      </c>
+      <c r="Z62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>359.9999985100206</v>
+      </c>
+      <c r="F63">
+        <v>10.00000301275542</v>
+      </c>
+      <c r="G63">
+        <v>148.4044918399545</v>
+      </c>
+      <c r="H63">
+        <v>5.176199426837854</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>90</v>
+      </c>
+      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="M63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="N63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="O63">
+        <v>64.68552831959812</v>
+      </c>
+      <c r="P63">
+        <v>4.894767936546288</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>4.940732191991048E-13</v>
+      </c>
+      <c r="V63">
+        <v>3.031996507388381E-06</v>
+      </c>
+      <c r="W63" t="s">
+        <v>26</v>
+      </c>
+      <c r="X63">
+        <v>0.003970600000002378</v>
+      </c>
+      <c r="Y63">
+        <v>21</v>
+      </c>
+      <c r="Z63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>359.9999943532537</v>
+      </c>
+      <c r="F64">
+        <v>9.999989606506199</v>
+      </c>
+      <c r="G64">
+        <v>6.075855643778249</v>
+      </c>
+      <c r="H64">
+        <v>8.869321183027337</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>90</v>
+      </c>
+      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="M64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="N64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="O64">
+        <v>7.285418395728726</v>
+      </c>
+      <c r="P64">
+        <v>18.11325879798969</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>4.84673851292435E-12</v>
+      </c>
+      <c r="V64">
+        <v>1.221859775516307E-05</v>
+      </c>
+      <c r="W64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64">
+        <v>0.001475999999996702</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>359.999997695927</v>
+      </c>
+      <c r="F65">
+        <v>10.00000671939361</v>
+      </c>
+      <c r="G65">
+        <v>99.70938510764222</v>
+      </c>
+      <c r="H65">
+        <v>7.754983322175304</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>25</v>
+      </c>
+      <c r="K65">
+        <v>90</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="N65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="O65">
+        <v>60.65836453400726</v>
+      </c>
+      <c r="P65">
+        <v>11.86529118670598</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>1.086715028457253E-12</v>
+      </c>
+      <c r="V65">
+        <v>5.020529963905643E-06</v>
+      </c>
+      <c r="W65" t="s">
+        <v>26</v>
+      </c>
+      <c r="X65">
+        <v>0.003639000000021042</v>
+      </c>
+      <c r="Y65">
+        <v>18</v>
+      </c>
+      <c r="Z65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>359.9999849959466</v>
+      </c>
+      <c r="F66">
+        <v>10.00004246001729</v>
+      </c>
+      <c r="G66">
+        <v>68.23777806784307</v>
+      </c>
+      <c r="H66">
+        <v>9.805242223055069</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>25</v>
+      </c>
+      <c r="K66">
+        <v>90</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="N66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="O66">
+        <v>45.8459257324767</v>
+      </c>
+      <c r="P66">
+        <v>16.86227716832985</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>4.739516577030243E-11</v>
+      </c>
+      <c r="V66">
+        <v>3.142769019104402E-05</v>
+      </c>
+      <c r="W66" t="s">
+        <v>26</v>
+      </c>
+      <c r="X66">
+        <v>0.001858099999992646</v>
+      </c>
+      <c r="Y66">
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>359.9999991606489</v>
+      </c>
+      <c r="F67">
+        <v>10.00000007524825</v>
+      </c>
+      <c r="G67">
+        <v>39.35610241271253</v>
+      </c>
+      <c r="H67">
+        <v>3.376834424954883</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>90</v>
+      </c>
+      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="M67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="N67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="O67">
+        <v>19.57687490653389</v>
+      </c>
+      <c r="P67">
+        <v>11.16213119230357</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>1.096578836956453E-13</v>
+      </c>
+      <c r="V67">
+        <v>1.979023846779549E-06</v>
+      </c>
+      <c r="W67" t="s">
+        <v>26</v>
+      </c>
+      <c r="X67">
+        <v>0.00171779999999444</v>
+      </c>
+      <c r="Y67">
+        <v>8</v>
+      </c>
+      <c r="Z67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.9999993613122</v>
+      </c>
+      <c r="F68">
+        <v>9.999999983203747</v>
+      </c>
+      <c r="G68">
+        <v>27.77176229724386</v>
+      </c>
+      <c r="H68">
+        <v>4.604396383872428</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+      <c r="K68">
+        <v>90</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="N68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="O68">
+        <v>16.96964677228712</v>
+      </c>
+      <c r="P68">
+        <v>12.8311345428266</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>6.095940073025796E-14</v>
+      </c>
+      <c r="V68">
+        <v>1.309610434652073E-06</v>
+      </c>
+      <c r="W68" t="s">
+        <v>26</v>
+      </c>
+      <c r="X68">
+        <v>0.00199889999998959</v>
+      </c>
+      <c r="Y68">
+        <v>8</v>
+      </c>
+      <c r="Z68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>359.9999957502467</v>
+      </c>
+      <c r="F69">
+        <v>10.00001842647396</v>
+      </c>
+      <c r="G69">
+        <v>98.25326773542237</v>
+      </c>
+      <c r="H69">
+        <v>13.30631191296023</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <v>90</v>
+      </c>
+      <c r="L69">
+        <v>7</v>
+      </c>
+      <c r="M69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="N69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="O69">
+        <v>73.30159453515029</v>
+      </c>
+      <c r="P69">
+        <v>17.71989397872699</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>2.585292865107519E-12</v>
+      </c>
+      <c r="V69">
+        <v>1.104086078515131E-05</v>
+      </c>
+      <c r="W69" t="s">
+        <v>26</v>
+      </c>
+      <c r="X69">
+        <v>0.003434900000002017</v>
+      </c>
+      <c r="Y69">
+        <v>19</v>
+      </c>
+      <c r="Z69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>359.9999984722381</v>
+      </c>
+      <c r="F70">
+        <v>10.00000064722097</v>
+      </c>
+      <c r="G70">
+        <v>46.68685345377226</v>
+      </c>
+      <c r="H70">
+        <v>3.520335646623049</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <v>90</v>
+      </c>
+      <c r="L70">
+        <v>7</v>
+      </c>
+      <c r="M70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="N70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="O70">
+        <v>22.43076049268321</v>
+      </c>
+      <c r="P70">
+        <v>11.1230735999219</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>3.790368812106352E-13</v>
+      </c>
+      <c r="V70">
+        <v>3.379996922845836E-06</v>
+      </c>
+      <c r="W70" t="s">
+        <v>26</v>
+      </c>
+      <c r="X70">
+        <v>0.001556999999991149</v>
+      </c>
+      <c r="Y70">
+        <v>8</v>
+      </c>
+      <c r="Z70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>359.9999904021256</v>
+      </c>
+      <c r="F71">
+        <v>10.00002885910562</v>
+      </c>
+      <c r="G71">
+        <v>53.32488150854827</v>
+      </c>
+      <c r="H71">
+        <v>12.70886451424177</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <v>90</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="N71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="O71">
+        <v>39.09768075585942</v>
+      </c>
+      <c r="P71">
+        <v>21.25127735902537</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>1.915765036292615E-11</v>
+      </c>
+      <c r="V71">
+        <v>2.008371545128034E-05</v>
+      </c>
+      <c r="W71" t="s">
+        <v>26</v>
+      </c>
+      <c r="X71">
+        <v>0.001922699999994393</v>
+      </c>
+      <c r="Y71">
+        <v>9</v>
+      </c>
+      <c r="Z71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.9999999517372</v>
+      </c>
+      <c r="F72">
+        <v>10.00000361624326</v>
+      </c>
+      <c r="G72">
+        <v>166.946494359438</v>
+      </c>
+      <c r="H72">
+        <v>13.46912146353452</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>25</v>
+      </c>
+      <c r="K72">
+        <v>90</v>
+      </c>
+      <c r="L72">
+        <v>7</v>
+      </c>
+      <c r="M72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="N72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="O72">
+        <v>150.0337658218271</v>
+      </c>
+      <c r="P72">
+        <v>9.651916097594331</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1.410317465450728E-12</v>
+      </c>
+      <c r="V72">
+        <v>2.471799910121231E-06</v>
+      </c>
+      <c r="W72" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72">
+        <v>0.004653399999995145</v>
+      </c>
+      <c r="Y72">
+        <v>26</v>
+      </c>
+      <c r="Z72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>359.9999954227918</v>
+      </c>
+      <c r="F73">
+        <v>10.00000523925554</v>
+      </c>
+      <c r="G73">
+        <v>33.40355475920668</v>
+      </c>
+      <c r="H73">
+        <v>7.639205424262154</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>25</v>
+      </c>
+      <c r="K73">
+        <v>90</v>
+      </c>
+      <c r="L73">
+        <v>7</v>
+      </c>
+      <c r="M73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="N73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="O73">
+        <v>22.4639604202701</v>
+      </c>
+      <c r="P73">
+        <v>16.27106637654385</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>3.546669917071436E-12</v>
+      </c>
+      <c r="V73">
+        <v>7.840316584472506E-06</v>
+      </c>
+      <c r="W73" t="s">
+        <v>26</v>
+      </c>
+      <c r="X73">
+        <v>0.001929699999976719</v>
+      </c>
+      <c r="Y73">
+        <v>8</v>
+      </c>
+      <c r="Z73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9999985708424</v>
+      </c>
+      <c r="F74">
+        <v>10.00000122464413</v>
+      </c>
+      <c r="G74">
+        <v>19.21287870918279</v>
+      </c>
+      <c r="H74">
+        <v>11.21211768165084</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="N74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="O74">
+        <v>15.57133449296187</v>
+      </c>
+      <c r="P74">
+        <v>20.85420683424876</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>3.056624418201425E-13</v>
+      </c>
+      <c r="V74">
+        <v>2.380413138971076E-06</v>
+      </c>
+      <c r="W74" t="s">
+        <v>26</v>
+      </c>
+      <c r="X74">
+        <v>0.00169460000000754</v>
+      </c>
+      <c r="Y74">
+        <v>8</v>
+      </c>
+      <c r="Z74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.999997173473</v>
+      </c>
+      <c r="F75">
+        <v>10.00001022425709</v>
+      </c>
+      <c r="G75">
+        <v>115.6841849203574</v>
+      </c>
+      <c r="H75">
+        <v>9.463465556313999</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>25</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>7</v>
+      </c>
+      <c r="M75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="N75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="O75">
+        <v>77.81914088833661</v>
+      </c>
+      <c r="P75">
+        <v>11.66725778260607</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>1.125069293311811E-12</v>
+      </c>
+      <c r="V75">
+        <v>6.612041748897801E-06</v>
+      </c>
+      <c r="W75" t="s">
+        <v>26</v>
+      </c>
+      <c r="X75">
+        <v>0.004007199999989552</v>
+      </c>
+      <c r="Y75">
+        <v>22</v>
+      </c>
+      <c r="Z75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.9999990960073</v>
+      </c>
+      <c r="F76">
+        <v>10.00000208367749</v>
+      </c>
+      <c r="G76">
+        <v>36.39641535678034</v>
+      </c>
+      <c r="H76">
+        <v>12.41457556082549</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+      <c r="K76">
+        <v>90</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="N76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="O76">
+        <v>27.32317398582096</v>
+      </c>
+      <c r="P76">
+        <v>21.80819474210581</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>1.589723866173853E-13</v>
+      </c>
+      <c r="V76">
+        <v>1.694020538364535E-06</v>
+      </c>
+      <c r="W76" t="s">
+        <v>26</v>
+      </c>
+      <c r="X76">
+        <v>0.002167300000024852</v>
+      </c>
+      <c r="Y76">
+        <v>9</v>
+      </c>
+      <c r="Z76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>359.9999917108212</v>
+      </c>
+      <c r="F77">
+        <v>10.00001349186856</v>
+      </c>
+      <c r="G77">
+        <v>102.4091639290469</v>
+      </c>
+      <c r="H77">
+        <v>3.791584572698503</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>25</v>
+      </c>
+      <c r="K77">
+        <v>90</v>
+      </c>
+      <c r="L77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="N77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="O77">
+        <v>41.23089221560186</v>
+      </c>
+      <c r="P77">
+        <v>8.517829237949133</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>1.704899783423586E-11</v>
+      </c>
+      <c r="V77">
+        <v>1.823036253114848E-05</v>
+      </c>
+      <c r="W77" t="s">
+        <v>26</v>
+      </c>
+      <c r="X77">
+        <v>0.002230300000007901</v>
+      </c>
+      <c r="Y77">
+        <v>11</v>
+      </c>
+      <c r="Z77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.9999862533579</v>
+      </c>
+      <c r="F78">
+        <v>10.00004279565871</v>
+      </c>
+      <c r="G78">
+        <v>55.94941113971252</v>
+      </c>
+      <c r="H78">
+        <v>12.82792322617945</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>25</v>
+      </c>
+      <c r="K78">
+        <v>90</v>
+      </c>
+      <c r="L78">
+        <v>7</v>
+      </c>
+      <c r="M78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="N78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="O78">
+        <v>41.02761491755123</v>
+      </c>
+      <c r="P78">
+        <v>21.21292095554245</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>3.931576660773251E-11</v>
+      </c>
+      <c r="V78">
+        <v>2.929450426427917E-05</v>
+      </c>
+      <c r="W78" t="s">
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>0.001772200000004887</v>
+      </c>
+      <c r="Y78">
+        <v>9</v>
+      </c>
+      <c r="Z78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>359.9999993819363</v>
+      </c>
+      <c r="F79">
+        <v>10.00003054550335</v>
+      </c>
+      <c r="G79">
+        <v>165.439602232929</v>
+      </c>
+      <c r="H79">
+        <v>10.70638936260418</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>25</v>
+      </c>
+      <c r="K79">
+        <v>90</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="N79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="O79">
+        <v>138.9401535111897</v>
+      </c>
+      <c r="P79">
+        <v>6.699221023552297</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>5.88003965279658E-11</v>
+      </c>
+      <c r="V79">
+        <v>2.106981644886058E-05</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79">
+        <v>0.005170699999979433</v>
+      </c>
+      <c r="Y79">
+        <v>24</v>
+      </c>
+      <c r="Z79">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9999935517844</v>
+      </c>
+      <c r="F80">
+        <v>9.999994313075952</v>
+      </c>
+      <c r="G80">
+        <v>8.672628455537264</v>
+      </c>
+      <c r="H80">
+        <v>11.17159013901159</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>25</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>7</v>
+      </c>
+      <c r="M80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="N80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="O80">
+        <v>8.792541706694058</v>
+      </c>
+      <c r="P80">
+        <v>20.88165249265606</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>5.416940396108633E-12</v>
+      </c>
+      <c r="V80">
+        <v>1.156139336701562E-05</v>
+      </c>
+      <c r="W80" t="s">
+        <v>26</v>
+      </c>
+      <c r="X80">
+        <v>0.001435599999979331</v>
+      </c>
+      <c r="Y80">
+        <v>7</v>
+      </c>
+      <c r="Z80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>359.999995109725</v>
+      </c>
+      <c r="F81">
+        <v>10.00001472634623</v>
+      </c>
+      <c r="G81">
+        <v>90.12027108863907</v>
+      </c>
+      <c r="H81">
+        <v>8.616829181643418</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>25</v>
+      </c>
+      <c r="K81">
+        <v>90</v>
+      </c>
+      <c r="L81">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="N81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="O81">
+        <v>57.39789896202295</v>
+      </c>
+      <c r="P81">
+        <v>13.66355599235356</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>4.921200974765045E-12</v>
+      </c>
+      <c r="V81">
+        <v>1.077350776475629E-05</v>
+      </c>
+      <c r="W81" t="s">
+        <v>26</v>
+      </c>
+      <c r="X81">
+        <v>0.002854799999994384</v>
+      </c>
+      <c r="Y81">
+        <v>15</v>
+      </c>
+      <c r="Z81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.9999783082366</v>
+      </c>
+      <c r="F82">
+        <v>10.00008187423309</v>
+      </c>
+      <c r="G82">
+        <v>93.94488119931106</v>
+      </c>
+      <c r="H82">
+        <v>11.39300687420838</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>25</v>
+      </c>
+      <c r="K82">
+        <v>90</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="N82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="O82">
+        <v>66.48786317951949</v>
+      </c>
+      <c r="P82">
+        <v>16.15055690160638</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>8.016781794013508E-11</v>
+      </c>
+      <c r="V82">
+        <v>5.259929452822532E-05</v>
+      </c>
+      <c r="W82" t="s">
+        <v>26</v>
+      </c>
+      <c r="X82">
+        <v>0.003458099999988917</v>
+      </c>
+      <c r="Y82">
+        <v>18</v>
+      </c>
+      <c r="Z82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>359.9999983483439</v>
+      </c>
+      <c r="F83">
+        <v>10.00000346322584</v>
+      </c>
+      <c r="G83">
+        <v>63.9754437393868</v>
+      </c>
+      <c r="H83">
+        <v>7.090191396006259</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>25</v>
+      </c>
+      <c r="K83">
+        <v>90</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="N83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="O83">
+        <v>38.41591384226707</v>
+      </c>
+      <c r="P83">
+        <v>14.18810967163426</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>5.787188553294697E-13</v>
+      </c>
+      <c r="V83">
+        <v>3.171962855678672E-06</v>
+      </c>
+      <c r="W83" t="s">
+        <v>26</v>
+      </c>
+      <c r="X83">
+        <v>0.001700499999998328</v>
+      </c>
+      <c r="Y83">
+        <v>9</v>
+      </c>
+      <c r="Z83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.9999972183958</v>
+      </c>
+      <c r="F84">
+        <v>10.00000688241204</v>
+      </c>
+      <c r="G84">
+        <v>49.54062876702083</v>
+      </c>
+      <c r="H84">
+        <v>10.67078098011003</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>90</v>
+      </c>
+      <c r="L84">
+        <v>7</v>
+      </c>
+      <c r="M84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="N84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="O84">
+        <v>34.81590959226214</v>
+      </c>
+      <c r="P84">
+        <v>19.11456384970372</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>1.578152219000385E-12</v>
+      </c>
+      <c r="V84">
+        <v>5.401695027139174E-06</v>
+      </c>
+      <c r="W84" t="s">
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>0.001777000000004136</v>
+      </c>
+      <c r="Y84">
+        <v>9</v>
+      </c>
+      <c r="Z84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>359.9999976751247</v>
+      </c>
+      <c r="F85">
+        <v>10.00000573996881</v>
+      </c>
+      <c r="G85">
+        <v>46.26764378392986</v>
+      </c>
+      <c r="H85">
+        <v>11.20546130707083</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+      <c r="K85">
+        <v>90</v>
+      </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
+      <c r="M85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="N85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="O85">
+        <v>33.13287343770286</v>
+      </c>
+      <c r="P85">
+        <v>19.91761930813098</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>1.093593143386659E-12</v>
+      </c>
+      <c r="V85">
+        <v>4.490140203885479E-06</v>
+      </c>
+      <c r="W85" t="s">
+        <v>26</v>
+      </c>
+      <c r="X85">
+        <v>0.001836300000007896</v>
+      </c>
+      <c r="Y85">
+        <v>9</v>
+      </c>
+      <c r="Z85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>359.9999883204697</v>
+      </c>
+      <c r="F86">
+        <v>9.99998251562466</v>
+      </c>
+      <c r="G86">
+        <v>8.287389186617608</v>
+      </c>
+      <c r="H86">
+        <v>7.442962332460977</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+      <c r="K86">
+        <v>90</v>
+      </c>
+      <c r="L86">
+        <v>7</v>
+      </c>
+      <c r="M86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="N86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="O86">
+        <v>8.615535634344521</v>
+      </c>
+      <c r="P86">
+        <v>16.40704784933284</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>2.071735018048238E-11</v>
+      </c>
+      <c r="V86">
+        <v>2.504556012208042E-05</v>
+      </c>
+      <c r="W86" t="s">
+        <v>26</v>
+      </c>
+      <c r="X86">
+        <v>0.001426500000007991</v>
+      </c>
+      <c r="Y86">
+        <v>7</v>
+      </c>
+      <c r="Z86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>359.9999994378164</v>
+      </c>
+      <c r="F87">
+        <v>10.00000193568098</v>
+      </c>
+      <c r="G87">
+        <v>111.667286749763</v>
+      </c>
+      <c r="H87">
+        <v>9.10743949464319</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87">
+        <v>90</v>
+      </c>
+      <c r="L87">
+        <v>7</v>
+      </c>
+      <c r="M87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="N87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="O87">
+        <v>73.5314491004584</v>
+      </c>
+      <c r="P87">
+        <v>11.81175348004206</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>4.946218090340413E-14</v>
+      </c>
+      <c r="V87">
+        <v>1.293177391962743E-06</v>
+      </c>
+      <c r="W87" t="s">
+        <v>26</v>
+      </c>
+      <c r="X87">
+        <v>0.004026400000014974</v>
+      </c>
+      <c r="Y87">
+        <v>22</v>
+      </c>
+      <c r="Z87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>359.9999977272979</v>
+      </c>
+      <c r="F88">
+        <v>10.00000164709294</v>
+      </c>
+      <c r="G88">
+        <v>36.46924950674552</v>
+      </c>
+      <c r="H88">
+        <v>5.485122873471126</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>25</v>
+      </c>
+      <c r="K88">
+        <v>90</v>
+      </c>
+      <c r="L88">
+        <v>7</v>
+      </c>
+      <c r="M88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="N88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="O88">
+        <v>21.84848921958406</v>
+      </c>
+      <c r="P88">
+        <v>13.65787257582645</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>8.41581183344474E-13</v>
+      </c>
+      <c r="V88">
+        <v>4.098048134783471E-06</v>
+      </c>
+      <c r="W88" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>0.001729599999976017</v>
+      </c>
+      <c r="Y88">
+        <v>8</v>
+      </c>
+      <c r="Z88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>359.9999984725889</v>
+      </c>
+      <c r="F89">
+        <v>10.00000816790292</v>
+      </c>
+      <c r="G89">
+        <v>118.1275549084242</v>
+      </c>
+      <c r="H89">
+        <v>14.45883183044602</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+      <c r="K89">
+        <v>90</v>
+      </c>
+      <c r="L89">
+        <v>7</v>
+      </c>
+      <c r="M89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="N89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="O89">
+        <v>92.76682234590072</v>
+      </c>
+      <c r="P89">
+        <v>16.49117513612231</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>3.149477186467419E-13</v>
+      </c>
+      <c r="V89">
+        <v>4.407195001082788E-06</v>
+      </c>
+      <c r="W89" t="s">
+        <v>26</v>
+      </c>
+      <c r="X89">
+        <v>0.00410060000001522</v>
+      </c>
+      <c r="Y89">
+        <v>23</v>
+      </c>
+      <c r="Z89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9999979220276</v>
+      </c>
+      <c r="F90">
+        <v>10.00000727827113</v>
+      </c>
+      <c r="G90">
+        <v>116.5591883466071</v>
+      </c>
+      <c r="H90">
+        <v>9.085806244970932</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+      <c r="K90">
+        <v>90</v>
+      </c>
+      <c r="L90">
+        <v>7</v>
+      </c>
+      <c r="M90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="N90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="O90">
+        <v>77.06502802768357</v>
+      </c>
+      <c r="P90">
+        <v>11.20725008652389</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>6.237883521899907E-13</v>
+      </c>
+      <c r="V90">
+        <v>4.806226627560876E-06</v>
+      </c>
+      <c r="W90" t="s">
+        <v>26</v>
+      </c>
+      <c r="X90">
+        <v>0.004502900000005639</v>
+      </c>
+      <c r="Y90">
+        <v>22</v>
+      </c>
+      <c r="Z90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>359.9999987508582</v>
+      </c>
+      <c r="F91">
+        <v>10.0000028986148</v>
+      </c>
+      <c r="G91">
+        <v>89.94497694062487</v>
+      </c>
+      <c r="H91">
+        <v>6.071249053443019</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>25</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+      <c r="L91">
+        <v>7</v>
+      </c>
+      <c r="M91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="N91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="O91">
+        <v>48.84601491894484</v>
+      </c>
+      <c r="P91">
+        <v>11.23052070255259</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>3.61318903629869E-13</v>
+      </c>
+      <c r="V91">
+        <v>2.570848096903249E-06</v>
+      </c>
+      <c r="W91" t="s">
+        <v>26</v>
+      </c>
+      <c r="X91">
+        <v>0.002268200000003162</v>
+      </c>
+      <c r="Y91">
+        <v>12</v>
+      </c>
+      <c r="Z91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>359.9999993051401</v>
+      </c>
+      <c r="F92">
+        <v>10.00000003451844</v>
+      </c>
+      <c r="G92">
+        <v>27.54975427408562</v>
+      </c>
+      <c r="H92">
+        <v>4.892229757996467</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>25</v>
+      </c>
+      <c r="K92">
+        <v>90</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="N92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="O92">
+        <v>17.15396044362647</v>
+      </c>
+      <c r="P92">
+        <v>13.17470241707262</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>7.200524138271233E-14</v>
+      </c>
+      <c r="V92">
+        <v>1.37446767262264E-06</v>
+      </c>
+      <c r="W92" t="s">
+        <v>26</v>
+      </c>
+      <c r="X92">
+        <v>0.001548399999990124</v>
+      </c>
+      <c r="Y92">
+        <v>8</v>
+      </c>
+      <c r="Z92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>359.9999952765417</v>
+      </c>
+      <c r="F93">
+        <v>10.00000527080829</v>
+      </c>
+      <c r="G93">
+        <v>36.18065099846007</v>
+      </c>
+      <c r="H93">
+        <v>6.948258856518819</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>25</v>
+      </c>
+      <c r="K93">
+        <v>90</v>
+      </c>
+      <c r="L93">
+        <v>7</v>
+      </c>
+      <c r="M93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="N93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="O93">
+        <v>23.34892501367632</v>
+      </c>
+      <c r="P93">
+        <v>15.37255303430132</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>3.817824789073253E-12</v>
+      </c>
+      <c r="V93">
+        <v>8.150637030358382E-06</v>
+      </c>
+      <c r="W93" t="s">
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>0.001864400000016531</v>
+      </c>
+      <c r="Y93">
+        <v>8</v>
+      </c>
+      <c r="Z93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>359.9999994338546</v>
+      </c>
+      <c r="F94">
+        <v>10.00001191851978</v>
+      </c>
+      <c r="G94">
+        <v>159.4584829067732</v>
+      </c>
+      <c r="H94">
+        <v>12.46299751934999</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>25</v>
+      </c>
+      <c r="K94">
+        <v>90</v>
+      </c>
+      <c r="L94">
+        <v>7</v>
+      </c>
+      <c r="M94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="N94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="O94">
+        <v>135.8914046397898</v>
+      </c>
+      <c r="P94">
+        <v>9.221227909221616</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>7.610474624834695E-12</v>
+      </c>
+      <c r="V94">
+        <v>7.64759423859931E-06</v>
+      </c>
+      <c r="W94" t="s">
+        <v>26</v>
+      </c>
+      <c r="X94">
+        <v>0.00415230000001543</v>
+      </c>
+      <c r="Y94">
+        <v>24</v>
+      </c>
+      <c r="Z94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.9999974594436</v>
+      </c>
+      <c r="F95">
+        <v>10.00001002201273</v>
+      </c>
+      <c r="G95">
+        <v>109.1437837711886</v>
+      </c>
+      <c r="H95">
+        <v>10.89015427780037</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>25</v>
+      </c>
+      <c r="K95">
+        <v>90</v>
+      </c>
+      <c r="L95">
+        <v>7</v>
+      </c>
+      <c r="M95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="N95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="O95">
+        <v>77.08992107378478</v>
+      </c>
+      <c r="P95">
+        <v>13.86646758695054</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>8.963540632601537E-13</v>
+      </c>
+      <c r="V95">
+        <v>6.252296822579985E-06</v>
+      </c>
+      <c r="W95" t="s">
+        <v>26</v>
+      </c>
+      <c r="X95">
+        <v>0.003799900000018397</v>
+      </c>
+      <c r="Y95">
+        <v>22</v>
+      </c>
+      <c r="Z95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.9999939583926</v>
+      </c>
+      <c r="F96">
+        <v>10.00002629798698</v>
+      </c>
+      <c r="G96">
+        <v>129.4894355683257</v>
+      </c>
+      <c r="H96">
+        <v>10.28669247427722</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>25</v>
+      </c>
+      <c r="K96">
+        <v>90</v>
+      </c>
+      <c r="L96">
+        <v>7</v>
+      </c>
+      <c r="M96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="N96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="O96">
+        <v>92.49633318291714</v>
+      </c>
+      <c r="P96">
+        <v>10.70701928060504</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>4.354225117540231E-12</v>
+      </c>
+      <c r="V96">
+        <v>1.557908417154492E-05</v>
+      </c>
+      <c r="W96" t="s">
+        <v>26</v>
+      </c>
+      <c r="X96">
+        <v>0.004182700000001205</v>
+      </c>
+      <c r="Y96">
+        <v>23</v>
+      </c>
+      <c r="Z96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>359.999996699694</v>
+      </c>
+      <c r="F97">
+        <v>10.00000288773946</v>
+      </c>
+      <c r="G97">
+        <v>41.1846239474305</v>
+      </c>
+      <c r="H97">
+        <v>5.288264041498559</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>25</v>
+      </c>
+      <c r="K97">
+        <v>90</v>
+      </c>
+      <c r="L97">
+        <v>7</v>
+      </c>
+      <c r="M97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="N97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="O97">
+        <v>23.74542763024296</v>
+      </c>
+      <c r="P97">
+        <v>13.28410907151053</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>1.8472069408037E-12</v>
+      </c>
+      <c r="V97">
+        <v>6.007518753257908E-06</v>
+      </c>
+      <c r="W97" t="s">
+        <v>26</v>
+      </c>
+      <c r="X97">
+        <v>0.001680200000009791</v>
+      </c>
+      <c r="Y97">
+        <v>8</v>
+      </c>
+      <c r="Z97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>359.9999979010525</v>
+      </c>
+      <c r="F98">
+        <v>10.00000566639177</v>
+      </c>
+      <c r="G98">
+        <v>38.64364652181576</v>
+      </c>
+      <c r="H98">
+        <v>13.91404014453531</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>25</v>
+      </c>
+      <c r="K98">
+        <v>90</v>
+      </c>
+      <c r="L98">
+        <v>7</v>
+      </c>
+      <c r="M98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="N98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="O98">
+        <v>29.58813843632875</v>
+      </c>
+      <c r="P98">
+        <v>23.48746470056761</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>8.91600955151585E-13</v>
+      </c>
+      <c r="V98">
+        <v>4.147464360072882E-06</v>
+      </c>
+      <c r="W98" t="s">
+        <v>26</v>
+      </c>
+      <c r="X98">
+        <v>0.001846099999994522</v>
+      </c>
+      <c r="Y98">
+        <v>9</v>
+      </c>
+      <c r="Z98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>359.9999990917786</v>
+      </c>
+      <c r="F99">
+        <v>10.00001001605915</v>
+      </c>
+      <c r="G99">
+        <v>150.6499383609822</v>
+      </c>
+      <c r="H99">
+        <v>14.64284848644021</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+      <c r="K99">
+        <v>90</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="N99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="O99">
+        <v>129.036143775015</v>
+      </c>
+      <c r="P99">
+        <v>12.59478354854251</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>3.485008550188141E-12</v>
+      </c>
+      <c r="V99">
+        <v>5.976091436801659E-06</v>
+      </c>
+      <c r="W99" t="s">
+        <v>26</v>
+      </c>
+      <c r="X99">
+        <v>0.004498999999981379</v>
+      </c>
+      <c r="Y99">
+        <v>24</v>
+      </c>
+      <c r="Z99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>359.999998011529</v>
+      </c>
+      <c r="F100">
+        <v>10.00000836766177</v>
+      </c>
+      <c r="G100">
+        <v>131.8081017493434</v>
+      </c>
+      <c r="H100">
+        <v>9.806279983648817</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>25</v>
+      </c>
+      <c r="K100">
+        <v>90</v>
+      </c>
+      <c r="L100">
+        <v>7</v>
+      </c>
+      <c r="M100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="N100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="O100">
+        <v>92.65513283676778</v>
+      </c>
+      <c r="P100">
+        <v>9.952444672006184</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>4.624089517811465E-13</v>
+      </c>
+      <c r="V100">
+        <v>5.052235167269684E-06</v>
+      </c>
+      <c r="W100" t="s">
+        <v>26</v>
+      </c>
+      <c r="X100">
+        <v>0.004560100000020384</v>
+      </c>
+      <c r="Y100">
+        <v>26</v>
+      </c>
+      <c r="Z100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>359.9999949734503</v>
+      </c>
+      <c r="F101">
+        <v>10.00001752310033</v>
+      </c>
+      <c r="G101">
+        <v>121.0101362825319</v>
+      </c>
+      <c r="H101">
+        <v>8.856964362929556</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>25</v>
+      </c>
+      <c r="K101">
+        <v>90</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="N101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="O101">
+        <v>79.48495084480946</v>
+      </c>
+      <c r="P101">
+        <v>10.45534147057428</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>3.466410996546514E-12</v>
+      </c>
+      <c r="V101">
+        <v>1.164758037656961E-05</v>
+      </c>
+      <c r="W101" t="s">
+        <v>26</v>
+      </c>
+      <c r="X101">
+        <v>0.004148799999995845</v>
+      </c>
+      <c r="Y101">
+        <v>22</v>
+      </c>
+      <c r="Z101">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
